--- a/Genus_traditional_barcode_sum.xlsx
+++ b/Genus_traditional_barcode_sum.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lcai/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingcai/Documents/GitHub/Bruno_barcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D56382-3A70-CF4E-BF79-5C6EF8150EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F3051A-FBFB-6F4C-B76D-C970D3FECFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16200" activeTab="2" xr2:uid="{AED4ACFE-60B5-2248-89FD-DD24598D5344}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" activeTab="2" xr2:uid="{AED4ACFE-60B5-2248-89FD-DD24598D5344}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_sum" sheetId="1" r:id="rId1"/>
     <sheet name="Complete" sheetId="2" r:id="rId2"/>
     <sheet name="200Mb" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
   <si>
     <t>Total_bases</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>ITS</t>
+  </si>
+  <si>
+    <t>NA-failed_assembly</t>
   </si>
 </sst>
 </file>
@@ -586,11 +589,11 @@
         <v>95872840</v>
       </c>
       <c r="D2">
-        <f>C2/4</f>
+        <f t="shared" ref="D2:D33" si="0">C2/4</f>
         <v>23968210</v>
       </c>
       <c r="E2" s="1">
-        <f>B2/D2</f>
+        <f t="shared" ref="E2:E33" si="1">B2/D2</f>
         <v>119.13773289703319</v>
       </c>
       <c r="F2" s="2">
@@ -625,11 +628,11 @@
         <v>32583512</v>
       </c>
       <c r="D3">
-        <f>C3/4</f>
+        <f t="shared" si="0"/>
         <v>8145878</v>
       </c>
       <c r="E3" s="1">
-        <f>B3/D3</f>
+        <f t="shared" si="1"/>
         <v>119.97182771458154</v>
       </c>
       <c r="F3" s="2">
@@ -637,19 +640,19 @@
         <v>833529.02014550089</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G66" si="0">50000000/E3</f>
+        <f t="shared" ref="G3:G66" si="2">50000000/E3</f>
         <v>416764.51007275045</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H66" si="1">25000000/E3</f>
+        <f t="shared" ref="H3:H66" si="3">25000000/E3</f>
         <v>208382.25503637522</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I66" si="2">10000000/E3</f>
+        <f t="shared" ref="I3:I66" si="4">10000000/E3</f>
         <v>83352.902014550098</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J66" si="3">5000000/E3</f>
+        <f t="shared" ref="J3:J66" si="5">5000000/E3</f>
         <v>41676.451007275049</v>
       </c>
     </row>
@@ -664,31 +667,31 @@
         <v>30748200</v>
       </c>
       <c r="D4">
-        <f>C4/4</f>
+        <f t="shared" si="0"/>
         <v>7687050</v>
       </c>
       <c r="E4" s="1">
-        <f>B4/D4</f>
+        <f t="shared" si="1"/>
         <v>127.04643966150864</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F67" si="4">100000000/E4</f>
+        <f t="shared" ref="F4:F67" si="6">100000000/E4</f>
         <v>787113.75357256131</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>393556.87678628066</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>196778.43839314033</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>78711.37535725614</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>39355.68767862807</v>
       </c>
     </row>
@@ -703,31 +706,31 @@
         <v>26289592</v>
       </c>
       <c r="D5">
-        <f>C5/4</f>
+        <f t="shared" si="0"/>
         <v>6572398</v>
       </c>
       <c r="E5" s="1">
-        <f>B5/D5</f>
+        <f t="shared" si="1"/>
         <v>120.05107405242349</v>
       </c>
       <c r="F5" s="2">
+        <f t="shared" si="6"/>
+        <v>832978.80330776842</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="2"/>
+        <v>416489.40165388421</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="3"/>
+        <v>208244.70082694211</v>
+      </c>
+      <c r="I5" s="2">
         <f t="shared" si="4"/>
-        <v>832978.80330776842</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="0"/>
-        <v>416489.40165388421</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" si="1"/>
-        <v>208244.70082694211</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" si="2"/>
         <v>83297.880330776839</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41648.94016538842</v>
       </c>
     </row>
@@ -742,31 +745,31 @@
         <v>22078496</v>
       </c>
       <c r="D6">
-        <f>C6/4</f>
+        <f t="shared" si="0"/>
         <v>5519624</v>
       </c>
       <c r="E6" s="1">
-        <f>B6/D6</f>
+        <f t="shared" si="1"/>
         <v>141.55538601904769</v>
       </c>
       <c r="F6" s="2">
+        <f t="shared" si="6"/>
+        <v>706437.26679918775</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="2"/>
+        <v>353218.63339959388</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="3"/>
+        <v>176609.31669979694</v>
+      </c>
+      <c r="I6" s="2">
         <f t="shared" si="4"/>
-        <v>706437.26679918775</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="0"/>
-        <v>353218.63339959388</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="1"/>
-        <v>176609.31669979694</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="2"/>
         <v>70643.726679918778</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>35321.863339959389</v>
       </c>
     </row>
@@ -781,31 +784,31 @@
         <v>24596648</v>
       </c>
       <c r="D7">
-        <f>C7/4</f>
+        <f t="shared" si="0"/>
         <v>6149162</v>
       </c>
       <c r="E7" s="1">
-        <f>B7/D7</f>
+        <f t="shared" si="1"/>
         <v>124.68611267681678</v>
       </c>
       <c r="F7" s="2">
+        <f t="shared" si="6"/>
+        <v>802013.93606036506</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="2"/>
+        <v>401006.96803018253</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="3"/>
+        <v>200503.48401509126</v>
+      </c>
+      <c r="I7" s="2">
         <f t="shared" si="4"/>
-        <v>802013.93606036506</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="0"/>
-        <v>401006.96803018253</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="1"/>
-        <v>200503.48401509126</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" si="2"/>
         <v>80201.393606036509</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>40100.696803018254</v>
       </c>
     </row>
@@ -820,31 +823,31 @@
         <v>22712912</v>
       </c>
       <c r="D8">
-        <f>C8/4</f>
+        <f t="shared" si="0"/>
         <v>5678228</v>
       </c>
       <c r="E8" s="1">
-        <f>B8/D8</f>
+        <f t="shared" si="1"/>
         <v>132.21738648043015</v>
       </c>
       <c r="F8" s="2">
+        <f t="shared" si="6"/>
+        <v>756330.18214893597</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="2"/>
+        <v>378165.09107446799</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="3"/>
+        <v>189082.54553723399</v>
+      </c>
+      <c r="I8" s="2">
         <f t="shared" si="4"/>
-        <v>756330.18214893597</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="0"/>
-        <v>378165.09107446799</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="1"/>
-        <v>189082.54553723399</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="2"/>
         <v>75633.0182148936</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>37816.5091074468</v>
       </c>
     </row>
@@ -859,31 +862,31 @@
         <v>20173344</v>
       </c>
       <c r="D9">
-        <f>C9/4</f>
+        <f t="shared" si="0"/>
         <v>5043336</v>
       </c>
       <c r="E9" s="1">
-        <f>B9/D9</f>
+        <f t="shared" si="1"/>
         <v>137.79464604380911</v>
       </c>
       <c r="F9" s="2">
+        <f t="shared" si="6"/>
+        <v>725717.60130801424</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="2"/>
+        <v>362858.80065400712</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="3"/>
+        <v>181429.40032700356</v>
+      </c>
+      <c r="I9" s="2">
         <f t="shared" si="4"/>
-        <v>725717.60130801424</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="0"/>
-        <v>362858.80065400712</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="1"/>
-        <v>181429.40032700356</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" si="2"/>
         <v>72571.760130801427</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>36285.880065400714</v>
       </c>
     </row>
@@ -898,31 +901,31 @@
         <v>20134176</v>
       </c>
       <c r="D10">
-        <f>C10/4</f>
+        <f t="shared" si="0"/>
         <v>5033544</v>
       </c>
       <c r="E10" s="1">
-        <f>B10/D10</f>
+        <f t="shared" si="1"/>
         <v>130.07993413785596</v>
       </c>
       <c r="F10" s="2">
+        <f t="shared" si="6"/>
+        <v>768758.07681469247</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="2"/>
+        <v>384379.03840734623</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="3"/>
+        <v>192189.51920367312</v>
+      </c>
+      <c r="I10" s="2">
         <f t="shared" si="4"/>
-        <v>768758.07681469247</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="0"/>
-        <v>384379.03840734623</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="1"/>
-        <v>192189.51920367312</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" si="2"/>
         <v>76875.807681469247</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>38437.903840734623</v>
       </c>
     </row>
@@ -937,31 +940,31 @@
         <v>19234848</v>
       </c>
       <c r="D11">
-        <f>C11/4</f>
+        <f t="shared" si="0"/>
         <v>4808712</v>
       </c>
       <c r="E11" s="1">
-        <f>B11/D11</f>
+        <f t="shared" si="1"/>
         <v>131.95933588869536</v>
       </c>
       <c r="F11" s="2">
+        <f t="shared" si="6"/>
+        <v>757809.20937907475</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="2"/>
+        <v>378904.60468953737</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="3"/>
+        <v>189452.30234476869</v>
+      </c>
+      <c r="I11" s="2">
         <f t="shared" si="4"/>
-        <v>757809.20937907475</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="0"/>
-        <v>378904.60468953737</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="1"/>
-        <v>189452.30234476869</v>
-      </c>
-      <c r="I11" s="2">
-        <f t="shared" si="2"/>
         <v>75780.920937907475</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>37890.460468953737</v>
       </c>
     </row>
@@ -976,31 +979,31 @@
         <v>20188272</v>
       </c>
       <c r="D12">
-        <f>C12/4</f>
+        <f t="shared" si="0"/>
         <v>5047068</v>
       </c>
       <c r="E12" s="1">
-        <f>B12/D12</f>
+        <f t="shared" si="1"/>
         <v>124.13716835200159</v>
       </c>
       <c r="F12" s="2">
+        <f t="shared" si="6"/>
+        <v>805560.50478323642</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="2"/>
+        <v>402780.25239161821</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="3"/>
+        <v>201390.12619580911</v>
+      </c>
+      <c r="I12" s="2">
         <f t="shared" si="4"/>
-        <v>805560.50478323642</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="0"/>
-        <v>402780.25239161821</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="1"/>
-        <v>201390.12619580911</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" si="2"/>
         <v>80556.050478323639</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>40278.02523916182</v>
       </c>
     </row>
@@ -1015,31 +1018,31 @@
         <v>19051864</v>
       </c>
       <c r="D13">
-        <f>C13/4</f>
+        <f t="shared" si="0"/>
         <v>4762966</v>
       </c>
       <c r="E13" s="1">
-        <f>B13/D13</f>
+        <f t="shared" si="1"/>
         <v>128.95763312188245</v>
       </c>
       <c r="F13" s="2">
+        <f t="shared" si="6"/>
+        <v>775448.4754344587</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="2"/>
+        <v>387724.23771722935</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="3"/>
+        <v>193862.11885861467</v>
+      </c>
+      <c r="I13" s="2">
         <f t="shared" si="4"/>
-        <v>775448.4754344587</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="0"/>
-        <v>387724.23771722935</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="1"/>
-        <v>193862.11885861467</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="2"/>
         <v>77544.847543445867</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>38772.423771722933</v>
       </c>
     </row>
@@ -1054,31 +1057,31 @@
         <v>20871104</v>
       </c>
       <c r="D14">
-        <f>C14/4</f>
+        <f t="shared" si="0"/>
         <v>5217776</v>
       </c>
       <c r="E14" s="1">
-        <f>B14/D14</f>
+        <f t="shared" si="1"/>
         <v>116.60597886915805</v>
       </c>
       <c r="F14" s="2">
+        <f t="shared" si="6"/>
+        <v>857588.95872919704</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="2"/>
+        <v>428794.47936459852</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="3"/>
+        <v>214397.23968229926</v>
+      </c>
+      <c r="I14" s="2">
         <f t="shared" si="4"/>
-        <v>857588.95872919704</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="0"/>
-        <v>428794.47936459852</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="1"/>
-        <v>214397.23968229926</v>
-      </c>
-      <c r="I14" s="2">
-        <f t="shared" si="2"/>
         <v>85758.895872919704</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>42879.447936459852</v>
       </c>
     </row>
@@ -1093,31 +1096,31 @@
         <v>17755344</v>
       </c>
       <c r="D15">
-        <f>C15/4</f>
+        <f t="shared" si="0"/>
         <v>4438836</v>
       </c>
       <c r="E15" s="1">
-        <f>B15/D15</f>
+        <f t="shared" si="1"/>
         <v>136.36701085599918</v>
       </c>
       <c r="F15" s="2">
+        <f t="shared" si="6"/>
+        <v>733315.18651235953</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="2"/>
+        <v>366657.59325617977</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="3"/>
+        <v>183328.79662808988</v>
+      </c>
+      <c r="I15" s="2">
         <f t="shared" si="4"/>
-        <v>733315.18651235953</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="0"/>
-        <v>366657.59325617977</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" si="1"/>
-        <v>183328.79662808988</v>
-      </c>
-      <c r="I15" s="2">
-        <f t="shared" si="2"/>
         <v>73331.518651235951</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>36665.759325617975</v>
       </c>
     </row>
@@ -1132,31 +1135,31 @@
         <v>17335600</v>
       </c>
       <c r="D16">
-        <f>C16/4</f>
+        <f t="shared" si="0"/>
         <v>4333900</v>
       </c>
       <c r="E16" s="1">
-        <f>B16/D16</f>
+        <f t="shared" si="1"/>
         <v>139.50256743348947</v>
       </c>
       <c r="F16" s="2">
+        <f t="shared" si="6"/>
+        <v>716832.68515955389</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="2"/>
+        <v>358416.34257977695</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="3"/>
+        <v>179208.17128988847</v>
+      </c>
+      <c r="I16" s="2">
         <f t="shared" si="4"/>
-        <v>716832.68515955389</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="0"/>
-        <v>358416.34257977695</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" si="1"/>
-        <v>179208.17128988847</v>
-      </c>
-      <c r="I16" s="2">
-        <f t="shared" si="2"/>
         <v>71683.268515955395</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>35841.634257977697</v>
       </c>
     </row>
@@ -1171,31 +1174,31 @@
         <v>20224024</v>
       </c>
       <c r="D17">
-        <f>C17/4</f>
+        <f t="shared" si="0"/>
         <v>5056006</v>
       </c>
       <c r="E17" s="1">
-        <f>B17/D17</f>
+        <f t="shared" si="1"/>
         <v>119.20279683212401</v>
       </c>
       <c r="F17" s="2">
+        <f t="shared" si="6"/>
+        <v>838906.49093437183</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="2"/>
+        <v>419453.24546718592</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="3"/>
+        <v>209726.62273359296</v>
+      </c>
+      <c r="I17" s="2">
         <f t="shared" si="4"/>
-        <v>838906.49093437183</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="0"/>
-        <v>419453.24546718592</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="1"/>
-        <v>209726.62273359296</v>
-      </c>
-      <c r="I17" s="2">
-        <f t="shared" si="2"/>
         <v>83890.649093437183</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41945.324546718592</v>
       </c>
     </row>
@@ -1210,31 +1213,31 @@
         <v>17760592</v>
       </c>
       <c r="D18">
-        <f>C18/4</f>
+        <f t="shared" si="0"/>
         <v>4440148</v>
       </c>
       <c r="E18" s="1">
-        <f>B18/D18</f>
+        <f t="shared" si="1"/>
         <v>135.17478066046448</v>
       </c>
       <c r="F18" s="2">
+        <f t="shared" si="6"/>
+        <v>739782.96477641491</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="2"/>
+        <v>369891.48238820746</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="3"/>
+        <v>184945.74119410373</v>
+      </c>
+      <c r="I18" s="2">
         <f t="shared" si="4"/>
-        <v>739782.96477641491</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="0"/>
-        <v>369891.48238820746</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" si="1"/>
-        <v>184945.74119410373</v>
-      </c>
-      <c r="I18" s="2">
-        <f t="shared" si="2"/>
         <v>73978.296477641488</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>36989.148238820744</v>
       </c>
     </row>
@@ -1249,31 +1252,31 @@
         <v>17340016</v>
       </c>
       <c r="D19">
-        <f>C19/4</f>
+        <f t="shared" si="0"/>
         <v>4335004</v>
       </c>
       <c r="E19" s="1">
-        <f>B19/D19</f>
+        <f t="shared" si="1"/>
         <v>132.47248560785641</v>
       </c>
       <c r="F19" s="2">
+        <f t="shared" si="6"/>
+        <v>754873.73503369524</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>377436.86751684762</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="3"/>
+        <v>188718.43375842381</v>
+      </c>
+      <c r="I19" s="2">
         <f t="shared" si="4"/>
-        <v>754873.73503369524</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="0"/>
-        <v>377436.86751684762</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="1"/>
-        <v>188718.43375842381</v>
-      </c>
-      <c r="I19" s="2">
-        <f t="shared" si="2"/>
         <v>75487.373503369512</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>37743.686751684756</v>
       </c>
     </row>
@@ -1288,31 +1291,31 @@
         <v>16749592</v>
       </c>
       <c r="D20">
-        <f>C20/4</f>
+        <f t="shared" si="0"/>
         <v>4187398</v>
       </c>
       <c r="E20" s="1">
-        <f>B20/D20</f>
+        <f t="shared" si="1"/>
         <v>135.70532058333123</v>
       </c>
       <c r="F20" s="2">
+        <f t="shared" si="6"/>
+        <v>736890.78342800855</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="2"/>
+        <v>368445.39171400428</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="3"/>
+        <v>184222.69585700214</v>
+      </c>
+      <c r="I20" s="2">
         <f t="shared" si="4"/>
-        <v>736890.78342800855</v>
-      </c>
-      <c r="G20" s="2">
-        <f t="shared" si="0"/>
-        <v>368445.39171400428</v>
-      </c>
-      <c r="H20" s="2">
-        <f t="shared" si="1"/>
-        <v>184222.69585700214</v>
-      </c>
-      <c r="I20" s="2">
-        <f t="shared" si="2"/>
         <v>73689.078342800858</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>36844.539171400429</v>
       </c>
     </row>
@@ -1327,31 +1330,31 @@
         <v>18744088</v>
       </c>
       <c r="D21">
-        <f>C21/4</f>
+        <f t="shared" si="0"/>
         <v>4686022</v>
       </c>
       <c r="E21" s="1">
-        <f>B21/D21</f>
+        <f t="shared" si="1"/>
         <v>119.35323436381647</v>
       </c>
       <c r="F21" s="2">
+        <f t="shared" si="6"/>
+        <v>837849.10005184019</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="2"/>
+        <v>418924.55002592009</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="3"/>
+        <v>209462.27501296005</v>
+      </c>
+      <c r="I21" s="2">
         <f t="shared" si="4"/>
-        <v>837849.10005184019</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="0"/>
-        <v>418924.55002592009</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" si="1"/>
-        <v>209462.27501296005</v>
-      </c>
-      <c r="I21" s="2">
-        <f t="shared" si="2"/>
         <v>83784.910005184021</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41892.455002592011</v>
       </c>
     </row>
@@ -1366,31 +1369,31 @@
         <v>15868000</v>
       </c>
       <c r="D22">
-        <f>C22/4</f>
+        <f t="shared" si="0"/>
         <v>3967000</v>
       </c>
       <c r="E22" s="1">
-        <f>B22/D22</f>
+        <f t="shared" si="1"/>
         <v>140.10411948575751</v>
       </c>
       <c r="F22" s="2">
+        <f t="shared" si="6"/>
+        <v>713754.88720134064</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="2"/>
+        <v>356877.44360067032</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="3"/>
+        <v>178438.72180033516</v>
+      </c>
+      <c r="I22" s="2">
         <f t="shared" si="4"/>
-        <v>713754.88720134064</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="0"/>
-        <v>356877.44360067032</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" si="1"/>
-        <v>178438.72180033516</v>
-      </c>
-      <c r="I22" s="2">
-        <f t="shared" si="2"/>
         <v>71375.488720134061</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>35687.74436006703</v>
       </c>
     </row>
@@ -1405,31 +1408,31 @@
         <v>17691352</v>
       </c>
       <c r="D23">
-        <f>C23/4</f>
+        <f t="shared" si="0"/>
         <v>4422838</v>
       </c>
       <c r="E23" s="1">
-        <f>B23/D23</f>
+        <f t="shared" si="1"/>
         <v>121.10580016722295</v>
       </c>
       <c r="F23" s="2">
+        <f t="shared" si="6"/>
+        <v>825724.28291559895</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="2"/>
+        <v>412862.14145779947</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="3"/>
+        <v>206431.07072889974</v>
+      </c>
+      <c r="I23" s="2">
         <f t="shared" si="4"/>
-        <v>825724.28291559895</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" si="0"/>
-        <v>412862.14145779947</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="1"/>
-        <v>206431.07072889974</v>
-      </c>
-      <c r="I23" s="2">
-        <f t="shared" si="2"/>
         <v>82572.428291559903</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41286.214145779952</v>
       </c>
     </row>
@@ -1444,31 +1447,31 @@
         <v>15868864</v>
       </c>
       <c r="D24">
-        <f>C24/4</f>
+        <f t="shared" si="0"/>
         <v>3967216</v>
       </c>
       <c r="E24" s="1">
-        <f>B24/D24</f>
+        <f t="shared" si="1"/>
         <v>130.538884446927</v>
       </c>
       <c r="F24" s="2">
+        <f t="shared" si="6"/>
+        <v>766055.26716184593</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="2"/>
+        <v>383027.63358092296</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="3"/>
+        <v>191513.81679046148</v>
+      </c>
+      <c r="I24" s="2">
         <f t="shared" si="4"/>
-        <v>766055.26716184593</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" si="0"/>
-        <v>383027.63358092296</v>
-      </c>
-      <c r="H24" s="2">
-        <f t="shared" si="1"/>
-        <v>191513.81679046148</v>
-      </c>
-      <c r="I24" s="2">
-        <f t="shared" si="2"/>
         <v>76605.526716184599</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>38302.763358092299</v>
       </c>
     </row>
@@ -1483,31 +1486,31 @@
         <v>15039984</v>
       </c>
       <c r="D25">
-        <f>C25/4</f>
+        <f t="shared" si="0"/>
         <v>3759996</v>
       </c>
       <c r="E25" s="1">
-        <f>B25/D25</f>
+        <f t="shared" si="1"/>
         <v>134.57719024169174</v>
       </c>
       <c r="F25" s="2">
+        <f t="shared" si="6"/>
+        <v>743067.97326059942</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="2"/>
+        <v>371533.98663029971</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>185766.99331514986</v>
+      </c>
+      <c r="I25" s="2">
         <f t="shared" si="4"/>
-        <v>743067.97326059942</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="0"/>
-        <v>371533.98663029971</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" si="1"/>
-        <v>185766.99331514986</v>
-      </c>
-      <c r="I25" s="2">
-        <f t="shared" si="2"/>
         <v>74306.797326059939</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>37153.39866302997</v>
       </c>
     </row>
@@ -1522,31 +1525,31 @@
         <v>16343136</v>
       </c>
       <c r="D26">
-        <f>C26/4</f>
+        <f t="shared" si="0"/>
         <v>4085784</v>
       </c>
       <c r="E26" s="1">
-        <f>B26/D26</f>
+        <f t="shared" si="1"/>
         <v>122.9506398282435</v>
       </c>
       <c r="F26" s="2">
+        <f t="shared" si="6"/>
+        <v>813334.52302237297</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="2"/>
+        <v>406667.26151118649</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="3"/>
+        <v>203333.63075559324</v>
+      </c>
+      <c r="I26" s="2">
         <f t="shared" si="4"/>
-        <v>813334.52302237297</v>
-      </c>
-      <c r="G26" s="2">
-        <f t="shared" si="0"/>
-        <v>406667.26151118649</v>
-      </c>
-      <c r="H26" s="2">
-        <f t="shared" si="1"/>
-        <v>203333.63075559324</v>
-      </c>
-      <c r="I26" s="2">
-        <f t="shared" si="2"/>
         <v>81333.452302237303</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>40666.726151118652</v>
       </c>
     </row>
@@ -1561,31 +1564,31 @@
         <v>15039928</v>
       </c>
       <c r="D27">
-        <f>C27/4</f>
+        <f t="shared" si="0"/>
         <v>3759982</v>
       </c>
       <c r="E27" s="1">
-        <f>B27/D27</f>
+        <f t="shared" si="1"/>
         <v>132.16848671084063</v>
       </c>
       <c r="F27" s="2">
+        <f t="shared" si="6"/>
+        <v>756610.00960675953</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="2"/>
+        <v>378305.00480337976</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="3"/>
+        <v>189152.50240168988</v>
+      </c>
+      <c r="I27" s="2">
         <f t="shared" si="4"/>
-        <v>756610.00960675953</v>
-      </c>
-      <c r="G27" s="2">
-        <f t="shared" si="0"/>
-        <v>378305.00480337976</v>
-      </c>
-      <c r="H27" s="2">
-        <f t="shared" si="1"/>
-        <v>189152.50240168988</v>
-      </c>
-      <c r="I27" s="2">
-        <f t="shared" si="2"/>
         <v>75661.000960675956</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>37830.500480337978</v>
       </c>
     </row>
@@ -1600,31 +1603,31 @@
         <v>16115488</v>
       </c>
       <c r="D28">
-        <f>C28/4</f>
+        <f t="shared" si="0"/>
         <v>4028872</v>
       </c>
       <c r="E28" s="1">
-        <f>B28/D28</f>
+        <f t="shared" si="1"/>
         <v>121.25267792076789</v>
       </c>
       <c r="F28" s="2">
+        <f t="shared" si="6"/>
+        <v>824724.05323158822</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="2"/>
+        <v>412362.02661579411</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="3"/>
+        <v>206181.01330789705</v>
+      </c>
+      <c r="I28" s="2">
         <f t="shared" si="4"/>
-        <v>824724.05323158822</v>
-      </c>
-      <c r="G28" s="2">
-        <f t="shared" si="0"/>
-        <v>412362.02661579411</v>
-      </c>
-      <c r="H28" s="2">
-        <f t="shared" si="1"/>
-        <v>206181.01330789705</v>
-      </c>
-      <c r="I28" s="2">
-        <f t="shared" si="2"/>
         <v>82472.405323158819</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41236.202661579409</v>
       </c>
     </row>
@@ -1639,31 +1642,31 @@
         <v>13704424</v>
       </c>
       <c r="D29">
-        <f>C29/4</f>
+        <f t="shared" si="0"/>
         <v>3426106</v>
       </c>
       <c r="E29" s="1">
-        <f>B29/D29</f>
+        <f t="shared" si="1"/>
         <v>139.56928857425893</v>
       </c>
       <c r="F29" s="2">
+        <f t="shared" si="6"/>
+        <v>716490.00307681737</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="2"/>
+        <v>358245.00153840869</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="3"/>
+        <v>179122.50076920434</v>
+      </c>
+      <c r="I29" s="2">
         <f t="shared" si="4"/>
-        <v>716490.00307681737</v>
-      </c>
-      <c r="G29" s="2">
-        <f t="shared" si="0"/>
-        <v>358245.00153840869</v>
-      </c>
-      <c r="H29" s="2">
-        <f t="shared" si="1"/>
-        <v>179122.50076920434</v>
-      </c>
-      <c r="I29" s="2">
-        <f t="shared" si="2"/>
         <v>71649.000307681737</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>35824.500153840869</v>
       </c>
     </row>
@@ -1678,31 +1681,31 @@
         <v>13944496</v>
       </c>
       <c r="D30">
-        <f>C30/4</f>
+        <f t="shared" si="0"/>
         <v>3486124</v>
       </c>
       <c r="E30" s="1">
-        <f>B30/D30</f>
+        <f t="shared" si="1"/>
         <v>131.86143866368494</v>
       </c>
       <c r="F30" s="2">
+        <f t="shared" si="6"/>
+        <v>758371.82586071931</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="2"/>
+        <v>379185.91293035966</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="3"/>
+        <v>189592.95646517983</v>
+      </c>
+      <c r="I30" s="2">
         <f t="shared" si="4"/>
-        <v>758371.82586071931</v>
-      </c>
-      <c r="G30" s="2">
-        <f t="shared" si="0"/>
-        <v>379185.91293035966</v>
-      </c>
-      <c r="H30" s="2">
-        <f t="shared" si="1"/>
-        <v>189592.95646517983</v>
-      </c>
-      <c r="I30" s="2">
-        <f t="shared" si="2"/>
         <v>75837.18258607194</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>37918.59129303597</v>
       </c>
     </row>
@@ -1717,31 +1720,31 @@
         <v>13980192</v>
       </c>
       <c r="D31">
-        <f>C31/4</f>
+        <f t="shared" si="0"/>
         <v>3495048</v>
       </c>
       <c r="E31" s="1">
-        <f>B31/D31</f>
+        <f t="shared" si="1"/>
         <v>131.29411012380945</v>
       </c>
       <c r="F31" s="2">
+        <f t="shared" si="6"/>
+        <v>761648.78916274826</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="2"/>
+        <v>380824.39458137413</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="3"/>
+        <v>190412.19729068707</v>
+      </c>
+      <c r="I31" s="2">
         <f t="shared" si="4"/>
-        <v>761648.78916274826</v>
-      </c>
-      <c r="G31" s="2">
-        <f t="shared" si="0"/>
-        <v>380824.39458137413</v>
-      </c>
-      <c r="H31" s="2">
-        <f t="shared" si="1"/>
-        <v>190412.19729068707</v>
-      </c>
-      <c r="I31" s="2">
-        <f t="shared" si="2"/>
         <v>76164.878916274829</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>38082.439458137414</v>
       </c>
     </row>
@@ -1756,31 +1759,31 @@
         <v>14593056</v>
       </c>
       <c r="D32">
-        <f>C32/4</f>
+        <f t="shared" si="0"/>
         <v>3648264</v>
       </c>
       <c r="E32" s="1">
-        <f>B32/D32</f>
+        <f t="shared" si="1"/>
         <v>123.0915227077865</v>
       </c>
       <c r="F32" s="2">
+        <f t="shared" si="6"/>
+        <v>812403.63105585519</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="2"/>
+        <v>406201.8155279276</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="3"/>
+        <v>203100.9077639638</v>
+      </c>
+      <c r="I32" s="2">
         <f t="shared" si="4"/>
-        <v>812403.63105585519</v>
-      </c>
-      <c r="G32" s="2">
-        <f t="shared" si="0"/>
-        <v>406201.8155279276</v>
-      </c>
-      <c r="H32" s="2">
-        <f t="shared" si="1"/>
-        <v>203100.9077639638</v>
-      </c>
-      <c r="I32" s="2">
-        <f t="shared" si="2"/>
         <v>81240.363105585522</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>40620.181552792761</v>
       </c>
     </row>
@@ -1795,31 +1798,31 @@
         <v>13656168</v>
       </c>
       <c r="D33">
-        <f>C33/4</f>
+        <f t="shared" si="0"/>
         <v>3414042</v>
       </c>
       <c r="E33" s="1">
-        <f>B33/D33</f>
+        <f t="shared" si="1"/>
         <v>126.13549833306092</v>
       </c>
       <c r="F33" s="2">
+        <f t="shared" si="6"/>
+        <v>792798.23143798811</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="2"/>
+        <v>396399.11571899406</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="3"/>
+        <v>198199.55785949703</v>
+      </c>
+      <c r="I33" s="2">
         <f t="shared" si="4"/>
-        <v>792798.23143798811</v>
-      </c>
-      <c r="G33" s="2">
-        <f t="shared" si="0"/>
-        <v>396399.11571899406</v>
-      </c>
-      <c r="H33" s="2">
-        <f t="shared" si="1"/>
-        <v>198199.55785949703</v>
-      </c>
-      <c r="I33" s="2">
-        <f t="shared" si="2"/>
         <v>79279.823143798814</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>39639.911571899407</v>
       </c>
     </row>
@@ -1834,31 +1837,31 @@
         <v>11645336</v>
       </c>
       <c r="D34">
-        <f>C34/4</f>
+        <f t="shared" ref="D34:D65" si="7">C34/4</f>
         <v>2911334</v>
       </c>
       <c r="E34" s="1">
-        <f>B34/D34</f>
+        <f t="shared" ref="E34:E65" si="8">B34/D34</f>
         <v>140.89914829421838</v>
       </c>
       <c r="F34" s="2">
+        <f t="shared" si="6"/>
+        <v>709727.49807674589</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="2"/>
+        <v>354863.74903837295</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="3"/>
+        <v>177431.87451918647</v>
+      </c>
+      <c r="I34" s="2">
         <f t="shared" si="4"/>
-        <v>709727.49807674589</v>
-      </c>
-      <c r="G34" s="2">
-        <f t="shared" si="0"/>
-        <v>354863.74903837295</v>
-      </c>
-      <c r="H34" s="2">
-        <f t="shared" si="1"/>
-        <v>177431.87451918647</v>
-      </c>
-      <c r="I34" s="2">
-        <f t="shared" si="2"/>
         <v>70972.749807674583</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>35486.374903837292</v>
       </c>
     </row>
@@ -1873,31 +1876,31 @@
         <v>13111104</v>
       </c>
       <c r="D35">
-        <f>C35/4</f>
+        <f t="shared" si="7"/>
         <v>3277776</v>
       </c>
       <c r="E35" s="1">
-        <f>B35/D35</f>
+        <f t="shared" si="8"/>
         <v>125.04714294082329</v>
       </c>
       <c r="F35" s="2">
+        <f t="shared" si="6"/>
+        <v>799698.39892562374</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="2"/>
+        <v>399849.19946281187</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="3"/>
+        <v>199924.59973140594</v>
+      </c>
+      <c r="I35" s="2">
         <f t="shared" si="4"/>
-        <v>799698.39892562374</v>
-      </c>
-      <c r="G35" s="2">
-        <f t="shared" si="0"/>
-        <v>399849.19946281187</v>
-      </c>
-      <c r="H35" s="2">
-        <f t="shared" si="1"/>
-        <v>199924.59973140594</v>
-      </c>
-      <c r="I35" s="2">
-        <f t="shared" si="2"/>
         <v>79969.839892562377</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>39984.919946281188</v>
       </c>
     </row>
@@ -1912,31 +1915,31 @@
         <v>13085848</v>
       </c>
       <c r="D36">
-        <f>C36/4</f>
+        <f t="shared" si="7"/>
         <v>3271462</v>
       </c>
       <c r="E36" s="1">
-        <f>B36/D36</f>
+        <f t="shared" si="8"/>
         <v>116.50271163168027</v>
       </c>
       <c r="F36" s="2">
+        <f t="shared" si="6"/>
+        <v>858349.11994277791</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="2"/>
+        <v>429174.55997138895</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="3"/>
+        <v>214587.27998569448</v>
+      </c>
+      <c r="I36" s="2">
         <f t="shared" si="4"/>
-        <v>858349.11994277791</v>
-      </c>
-      <c r="G36" s="2">
-        <f t="shared" si="0"/>
-        <v>429174.55997138895</v>
-      </c>
-      <c r="H36" s="2">
-        <f t="shared" si="1"/>
-        <v>214587.27998569448</v>
-      </c>
-      <c r="I36" s="2">
-        <f t="shared" si="2"/>
         <v>85834.911994277791</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>42917.455997138895</v>
       </c>
     </row>
@@ -1951,31 +1954,31 @@
         <v>12943056</v>
       </c>
       <c r="D37">
-        <f>C37/4</f>
+        <f t="shared" si="7"/>
         <v>3235764</v>
       </c>
       <c r="E37" s="1">
-        <f>B37/D37</f>
+        <f t="shared" si="8"/>
         <v>114.74848505638853</v>
       </c>
       <c r="F37" s="2">
+        <f t="shared" si="6"/>
+        <v>871471.20025906246</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="2"/>
+        <v>435735.60012953123</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="3"/>
+        <v>217867.80006476562</v>
+      </c>
+      <c r="I37" s="2">
         <f t="shared" si="4"/>
-        <v>871471.20025906246</v>
-      </c>
-      <c r="G37" s="2">
-        <f t="shared" si="0"/>
-        <v>435735.60012953123</v>
-      </c>
-      <c r="H37" s="2">
-        <f t="shared" si="1"/>
-        <v>217867.80006476562</v>
-      </c>
-      <c r="I37" s="2">
-        <f t="shared" si="2"/>
         <v>87147.120025906246</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>43573.560012953123</v>
       </c>
     </row>
@@ -1990,31 +1993,31 @@
         <v>11775176</v>
       </c>
       <c r="D38">
-        <f>C38/4</f>
+        <f t="shared" si="7"/>
         <v>2943794</v>
       </c>
       <c r="E38" s="1">
-        <f>B38/D38</f>
+        <f t="shared" si="8"/>
         <v>124.33105067813848</v>
       </c>
       <c r="F38" s="2">
+        <f t="shared" si="6"/>
+        <v>804304.31058508949</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="2"/>
+        <v>402152.15529254475</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="3"/>
+        <v>201076.07764627237</v>
+      </c>
+      <c r="I38" s="2">
         <f t="shared" si="4"/>
-        <v>804304.31058508949</v>
-      </c>
-      <c r="G38" s="2">
-        <f t="shared" si="0"/>
-        <v>402152.15529254475</v>
-      </c>
-      <c r="H38" s="2">
-        <f t="shared" si="1"/>
-        <v>201076.07764627237</v>
-      </c>
-      <c r="I38" s="2">
-        <f t="shared" si="2"/>
         <v>80430.431058508955</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>40215.215529254478</v>
       </c>
     </row>
@@ -2029,31 +2032,31 @@
         <v>13168976</v>
       </c>
       <c r="D39">
-        <f>C39/4</f>
+        <f t="shared" si="7"/>
         <v>3292244</v>
       </c>
       <c r="E39" s="1">
-        <f>B39/D39</f>
+        <f t="shared" si="8"/>
         <v>103.43393837151802</v>
       </c>
       <c r="F39" s="2">
+        <f t="shared" si="6"/>
+        <v>966800.66112165363</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="2"/>
+        <v>483400.33056082681</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="3"/>
+        <v>241700.16528041341</v>
+      </c>
+      <c r="I39" s="2">
         <f t="shared" si="4"/>
-        <v>966800.66112165363</v>
-      </c>
-      <c r="G39" s="2">
-        <f t="shared" si="0"/>
-        <v>483400.33056082681</v>
-      </c>
-      <c r="H39" s="2">
-        <f t="shared" si="1"/>
-        <v>241700.16528041341</v>
-      </c>
-      <c r="I39" s="2">
-        <f t="shared" si="2"/>
         <v>96680.066112165354</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>48340.033056082677</v>
       </c>
     </row>
@@ -2068,31 +2071,31 @@
         <v>12049512</v>
       </c>
       <c r="D40">
-        <f>C40/4</f>
+        <f t="shared" si="7"/>
         <v>3012378</v>
       </c>
       <c r="E40" s="1">
-        <f>B40/D40</f>
+        <f t="shared" si="8"/>
         <v>112.4520843665702</v>
       </c>
       <c r="F40" s="2">
+        <f t="shared" si="6"/>
+        <v>889267.64286574698</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="2"/>
+        <v>444633.82143287349</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="3"/>
+        <v>222316.91071643675</v>
+      </c>
+      <c r="I40" s="2">
         <f t="shared" si="4"/>
-        <v>889267.64286574698</v>
-      </c>
-      <c r="G40" s="2">
-        <f t="shared" si="0"/>
-        <v>444633.82143287349</v>
-      </c>
-      <c r="H40" s="2">
-        <f t="shared" si="1"/>
-        <v>222316.91071643675</v>
-      </c>
-      <c r="I40" s="2">
-        <f t="shared" si="2"/>
         <v>88926.764286574689</v>
       </c>
       <c r="J40" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44463.382143287345</v>
       </c>
     </row>
@@ -2107,31 +2110,31 @@
         <v>9826608</v>
       </c>
       <c r="D41">
-        <f>C41/4</f>
+        <f t="shared" si="7"/>
         <v>2456652</v>
       </c>
       <c r="E41" s="1">
-        <f>B41/D41</f>
+        <f t="shared" si="8"/>
         <v>135.89944770362266</v>
       </c>
       <c r="F41" s="2">
+        <f t="shared" si="6"/>
+        <v>735838.16336094134</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="2"/>
+        <v>367919.08168047067</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="3"/>
+        <v>183959.54084023534</v>
+      </c>
+      <c r="I41" s="2">
         <f t="shared" si="4"/>
-        <v>735838.16336094134</v>
-      </c>
-      <c r="G41" s="2">
-        <f t="shared" si="0"/>
-        <v>367919.08168047067</v>
-      </c>
-      <c r="H41" s="2">
-        <f t="shared" si="1"/>
-        <v>183959.54084023534</v>
-      </c>
-      <c r="I41" s="2">
-        <f t="shared" si="2"/>
         <v>73583.81633609414</v>
       </c>
       <c r="J41" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>36791.90816804707</v>
       </c>
     </row>
@@ -2146,31 +2149,31 @@
         <v>9781568</v>
       </c>
       <c r="D42">
-        <f>C42/4</f>
+        <f t="shared" si="7"/>
         <v>2445392</v>
       </c>
       <c r="E42" s="1">
-        <f>B42/D42</f>
+        <f t="shared" si="8"/>
         <v>135.03943130590105</v>
       </c>
       <c r="F42" s="2">
+        <f t="shared" si="6"/>
+        <v>740524.44558562152</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="2"/>
+        <v>370262.22279281076</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="3"/>
+        <v>185131.11139640538</v>
+      </c>
+      <c r="I42" s="2">
         <f t="shared" si="4"/>
-        <v>740524.44558562152</v>
-      </c>
-      <c r="G42" s="2">
-        <f t="shared" si="0"/>
-        <v>370262.22279281076</v>
-      </c>
-      <c r="H42" s="2">
-        <f t="shared" si="1"/>
-        <v>185131.11139640538</v>
-      </c>
-      <c r="I42" s="2">
-        <f t="shared" si="2"/>
         <v>74052.444558562158</v>
       </c>
       <c r="J42" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>37026.222279281079</v>
       </c>
     </row>
@@ -2185,31 +2188,31 @@
         <v>10405632</v>
       </c>
       <c r="D43">
-        <f>C43/4</f>
+        <f t="shared" si="7"/>
         <v>2601408</v>
       </c>
       <c r="E43" s="1">
-        <f>B43/D43</f>
+        <f t="shared" si="8"/>
         <v>119.62651072034836</v>
       </c>
       <c r="F43" s="2">
+        <f t="shared" si="6"/>
+        <v>835935.10667355848</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="2"/>
+        <v>417967.55333677924</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="3"/>
+        <v>208983.77666838962</v>
+      </c>
+      <c r="I43" s="2">
         <f t="shared" si="4"/>
-        <v>835935.10667355848</v>
-      </c>
-      <c r="G43" s="2">
-        <f t="shared" si="0"/>
-        <v>417967.55333677924</v>
-      </c>
-      <c r="H43" s="2">
-        <f t="shared" si="1"/>
-        <v>208983.77666838962</v>
-      </c>
-      <c r="I43" s="2">
-        <f t="shared" si="2"/>
         <v>83593.510667355848</v>
       </c>
       <c r="J43" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41796.755333677924</v>
       </c>
     </row>
@@ -2224,31 +2227,31 @@
         <v>10393304</v>
       </c>
       <c r="D44">
-        <f>C44/4</f>
+        <f t="shared" si="7"/>
         <v>2598326</v>
       </c>
       <c r="E44" s="1">
-        <f>B44/D44</f>
+        <f t="shared" si="8"/>
         <v>112.80453068629572</v>
       </c>
       <c r="F44" s="2">
+        <f t="shared" si="6"/>
+        <v>886489.21627177775</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" si="2"/>
+        <v>443244.60813588888</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="3"/>
+        <v>221622.30406794444</v>
+      </c>
+      <c r="I44" s="2">
         <f t="shared" si="4"/>
-        <v>886489.21627177775</v>
-      </c>
-      <c r="G44" s="2">
-        <f t="shared" si="0"/>
-        <v>443244.60813588888</v>
-      </c>
-      <c r="H44" s="2">
-        <f t="shared" si="1"/>
-        <v>221622.30406794444</v>
-      </c>
-      <c r="I44" s="2">
-        <f t="shared" si="2"/>
         <v>88648.921627177784</v>
       </c>
       <c r="J44" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44324.460813588892</v>
       </c>
     </row>
@@ -2263,31 +2266,31 @@
         <v>8639328</v>
       </c>
       <c r="D45">
-        <f>C45/4</f>
+        <f t="shared" si="7"/>
         <v>2159832</v>
       </c>
       <c r="E45" s="1">
-        <f>B45/D45</f>
+        <f t="shared" si="8"/>
         <v>134.94982526418721</v>
       </c>
       <c r="F45" s="2">
+        <f t="shared" si="6"/>
+        <v>741016.15029314056</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" si="2"/>
+        <v>370508.07514657028</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="3"/>
+        <v>185254.03757328514</v>
+      </c>
+      <c r="I45" s="2">
         <f t="shared" si="4"/>
-        <v>741016.15029314056</v>
-      </c>
-      <c r="G45" s="2">
-        <f t="shared" si="0"/>
-        <v>370508.07514657028</v>
-      </c>
-      <c r="H45" s="2">
-        <f t="shared" si="1"/>
-        <v>185254.03757328514</v>
-      </c>
-      <c r="I45" s="2">
-        <f t="shared" si="2"/>
         <v>74101.615029314053</v>
       </c>
       <c r="J45" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>37050.807514657026</v>
       </c>
     </row>
@@ -2302,31 +2305,31 @@
         <v>8892040</v>
       </c>
       <c r="D46">
-        <f>C46/4</f>
+        <f t="shared" si="7"/>
         <v>2223010</v>
       </c>
       <c r="E46" s="1">
-        <f>B46/D46</f>
+        <f t="shared" si="8"/>
         <v>118.28917233840603</v>
       </c>
       <c r="F46" s="2">
+        <f t="shared" si="6"/>
+        <v>845385.91337773763</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" si="2"/>
+        <v>422692.95668886881</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="3"/>
+        <v>211346.47834443441</v>
+      </c>
+      <c r="I46" s="2">
         <f t="shared" si="4"/>
-        <v>845385.91337773763</v>
-      </c>
-      <c r="G46" s="2">
-        <f t="shared" si="0"/>
-        <v>422692.95668886881</v>
-      </c>
-      <c r="H46" s="2">
-        <f t="shared" si="1"/>
-        <v>211346.47834443441</v>
-      </c>
-      <c r="I46" s="2">
-        <f t="shared" si="2"/>
         <v>84538.59133777376</v>
       </c>
       <c r="J46" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>42269.29566888688</v>
       </c>
     </row>
@@ -2341,31 +2344,31 @@
         <v>12641720</v>
       </c>
       <c r="D47">
-        <f>C47/4</f>
+        <f t="shared" si="7"/>
         <v>3160430</v>
       </c>
       <c r="E47" s="1">
-        <f>B47/D47</f>
+        <f t="shared" si="8"/>
         <v>83.080244776818347</v>
       </c>
       <c r="F47" s="2">
+        <f t="shared" si="6"/>
+        <v>1203655.5774316005</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" si="2"/>
+        <v>601827.78871580027</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="3"/>
+        <v>300913.89435790014</v>
+      </c>
+      <c r="I47" s="2">
         <f t="shared" si="4"/>
-        <v>1203655.5774316005</v>
-      </c>
-      <c r="G47" s="2">
-        <f t="shared" si="0"/>
-        <v>601827.78871580027</v>
-      </c>
-      <c r="H47" s="2">
-        <f t="shared" si="1"/>
-        <v>300913.89435790014</v>
-      </c>
-      <c r="I47" s="2">
-        <f t="shared" si="2"/>
         <v>120365.55774316005</v>
       </c>
       <c r="J47" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>60182.778871580027</v>
       </c>
     </row>
@@ -2380,31 +2383,31 @@
         <v>8734728</v>
       </c>
       <c r="D48">
-        <f>C48/4</f>
+        <f t="shared" si="7"/>
         <v>2183682</v>
       </c>
       <c r="E48" s="1">
-        <f>B48/D48</f>
+        <f t="shared" si="8"/>
         <v>119.11781706310717</v>
       </c>
       <c r="F48" s="2">
+        <f t="shared" si="6"/>
+        <v>839504.9747009821</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" si="2"/>
+        <v>419752.48735049105</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="3"/>
+        <v>209876.24367524553</v>
+      </c>
+      <c r="I48" s="2">
         <f t="shared" si="4"/>
-        <v>839504.9747009821</v>
-      </c>
-      <c r="G48" s="2">
-        <f t="shared" si="0"/>
-        <v>419752.48735049105</v>
-      </c>
-      <c r="H48" s="2">
-        <f t="shared" si="1"/>
-        <v>209876.24367524553</v>
-      </c>
-      <c r="I48" s="2">
-        <f t="shared" si="2"/>
         <v>83950.497470098213</v>
       </c>
       <c r="J48" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41975.248735049106</v>
       </c>
     </row>
@@ -2419,31 +2422,31 @@
         <v>8614160</v>
       </c>
       <c r="D49">
-        <f>C49/4</f>
+        <f t="shared" si="7"/>
         <v>2153540</v>
       </c>
       <c r="E49" s="1">
-        <f>B49/D49</f>
+        <f t="shared" si="8"/>
         <v>120.26856431735654</v>
       </c>
       <c r="F49" s="2">
+        <f t="shared" si="6"/>
+        <v>831472.46803517814</v>
+      </c>
+      <c r="G49" s="2">
+        <f t="shared" si="2"/>
+        <v>415736.23401758907</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="3"/>
+        <v>207868.11700879454</v>
+      </c>
+      <c r="I49" s="2">
         <f t="shared" si="4"/>
-        <v>831472.46803517814</v>
-      </c>
-      <c r="G49" s="2">
-        <f t="shared" si="0"/>
-        <v>415736.23401758907</v>
-      </c>
-      <c r="H49" s="2">
-        <f t="shared" si="1"/>
-        <v>207868.11700879454</v>
-      </c>
-      <c r="I49" s="2">
-        <f t="shared" si="2"/>
         <v>83147.246803517817</v>
       </c>
       <c r="J49" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41573.623401758909</v>
       </c>
     </row>
@@ -2458,31 +2461,31 @@
         <v>8362080</v>
       </c>
       <c r="D50">
-        <f>C50/4</f>
+        <f t="shared" si="7"/>
         <v>2090520</v>
       </c>
       <c r="E50" s="1">
-        <f>B50/D50</f>
+        <f t="shared" si="8"/>
         <v>123.41319815165605</v>
       </c>
       <c r="F50" s="2">
+        <f t="shared" si="6"/>
+        <v>810286.10795026319</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" si="2"/>
+        <v>405143.0539751316</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="3"/>
+        <v>202571.5269875658</v>
+      </c>
+      <c r="I50" s="2">
         <f t="shared" si="4"/>
-        <v>810286.10795026319</v>
-      </c>
-      <c r="G50" s="2">
-        <f t="shared" si="0"/>
-        <v>405143.0539751316</v>
-      </c>
-      <c r="H50" s="2">
-        <f t="shared" si="1"/>
-        <v>202571.5269875658</v>
-      </c>
-      <c r="I50" s="2">
-        <f t="shared" si="2"/>
         <v>81028.610795026325</v>
       </c>
       <c r="J50" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>40514.305397513162</v>
       </c>
     </row>
@@ -2497,31 +2500,31 @@
         <v>8361448</v>
       </c>
       <c r="D51">
-        <f>C51/4</f>
+        <f t="shared" si="7"/>
         <v>2090362</v>
       </c>
       <c r="E51" s="1">
-        <f>B51/D51</f>
+        <f t="shared" si="8"/>
         <v>123.04321691649581</v>
       </c>
       <c r="F51" s="2">
+        <f t="shared" si="6"/>
+        <v>812722.57427945617</v>
+      </c>
+      <c r="G51" s="2">
+        <f t="shared" si="2"/>
+        <v>406361.28713972808</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" si="3"/>
+        <v>203180.64356986404</v>
+      </c>
+      <c r="I51" s="2">
         <f t="shared" si="4"/>
-        <v>812722.57427945617</v>
-      </c>
-      <c r="G51" s="2">
-        <f t="shared" si="0"/>
-        <v>406361.28713972808</v>
-      </c>
-      <c r="H51" s="2">
-        <f t="shared" si="1"/>
-        <v>203180.64356986404</v>
-      </c>
-      <c r="I51" s="2">
-        <f t="shared" si="2"/>
         <v>81272.257427945617</v>
       </c>
       <c r="J51" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>40636.128713972808</v>
       </c>
     </row>
@@ -2536,31 +2539,31 @@
         <v>9390024</v>
       </c>
       <c r="D52">
-        <f>C52/4</f>
+        <f t="shared" si="7"/>
         <v>2347506</v>
       </c>
       <c r="E52" s="1">
-        <f>B52/D52</f>
+        <f t="shared" si="8"/>
         <v>109.37270873855061</v>
       </c>
       <c r="F52" s="2">
+        <f t="shared" si="6"/>
+        <v>914304.86776225362</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" si="2"/>
+        <v>457152.43388112681</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" si="3"/>
+        <v>228576.2169405634</v>
+      </c>
+      <c r="I52" s="2">
         <f t="shared" si="4"/>
-        <v>914304.86776225362</v>
-      </c>
-      <c r="G52" s="2">
-        <f t="shared" si="0"/>
-        <v>457152.43388112681</v>
-      </c>
-      <c r="H52" s="2">
-        <f t="shared" si="1"/>
-        <v>228576.2169405634</v>
-      </c>
-      <c r="I52" s="2">
-        <f t="shared" si="2"/>
         <v>91430.486776225356</v>
       </c>
       <c r="J52" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>45715.243388112678</v>
       </c>
     </row>
@@ -2575,31 +2578,31 @@
         <v>7499120</v>
       </c>
       <c r="D53">
-        <f>C53/4</f>
+        <f t="shared" si="7"/>
         <v>1874780</v>
       </c>
       <c r="E53" s="1">
-        <f>B53/D53</f>
+        <f t="shared" si="8"/>
         <v>136.11738657335795</v>
       </c>
       <c r="F53" s="2">
+        <f t="shared" si="6"/>
+        <v>734660.00573047181</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" si="2"/>
+        <v>367330.0028652359</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="3"/>
+        <v>183665.00143261795</v>
+      </c>
+      <c r="I53" s="2">
         <f t="shared" si="4"/>
-        <v>734660.00573047181</v>
-      </c>
-      <c r="G53" s="2">
-        <f t="shared" si="0"/>
-        <v>367330.0028652359</v>
-      </c>
-      <c r="H53" s="2">
-        <f t="shared" si="1"/>
-        <v>183665.00143261795</v>
-      </c>
-      <c r="I53" s="2">
-        <f t="shared" si="2"/>
         <v>73466.000573047189</v>
       </c>
       <c r="J53" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>36733.000286523595</v>
       </c>
     </row>
@@ -2614,31 +2617,31 @@
         <v>9707352</v>
       </c>
       <c r="D54">
-        <f>C54/4</f>
+        <f t="shared" si="7"/>
         <v>2426838</v>
       </c>
       <c r="E54" s="1">
-        <f>B54/D54</f>
+        <f t="shared" si="8"/>
         <v>105.11174128639819</v>
       </c>
       <c r="F54" s="2">
+        <f t="shared" si="6"/>
+        <v>951368.50342465343</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" si="2"/>
+        <v>475684.25171232672</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" si="3"/>
+        <v>237842.12585616336</v>
+      </c>
+      <c r="I54" s="2">
         <f t="shared" si="4"/>
-        <v>951368.50342465343</v>
-      </c>
-      <c r="G54" s="2">
-        <f t="shared" si="0"/>
-        <v>475684.25171232672</v>
-      </c>
-      <c r="H54" s="2">
-        <f t="shared" si="1"/>
-        <v>237842.12585616336</v>
-      </c>
-      <c r="I54" s="2">
-        <f t="shared" si="2"/>
         <v>95136.850342465346</v>
       </c>
       <c r="J54" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>47568.425171232673</v>
       </c>
     </row>
@@ -2653,31 +2656,31 @@
         <v>9067584</v>
       </c>
       <c r="D55">
-        <f>C55/4</f>
+        <f t="shared" si="7"/>
         <v>2266896</v>
       </c>
       <c r="E55" s="1">
-        <f>B55/D55</f>
+        <f t="shared" si="8"/>
         <v>109.06255249468877</v>
       </c>
       <c r="F55" s="2">
+        <f t="shared" si="6"/>
+        <v>916905.00279525272</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" si="2"/>
+        <v>458452.50139762636</v>
+      </c>
+      <c r="H55" s="2">
+        <f t="shared" si="3"/>
+        <v>229226.25069881318</v>
+      </c>
+      <c r="I55" s="2">
         <f t="shared" si="4"/>
-        <v>916905.00279525272</v>
-      </c>
-      <c r="G55" s="2">
-        <f t="shared" si="0"/>
-        <v>458452.50139762636</v>
-      </c>
-      <c r="H55" s="2">
-        <f t="shared" si="1"/>
-        <v>229226.25069881318</v>
-      </c>
-      <c r="I55" s="2">
-        <f t="shared" si="2"/>
         <v>91690.500279525266</v>
       </c>
       <c r="J55" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>45845.250139762633</v>
       </c>
     </row>
@@ -2692,31 +2695,31 @@
         <v>7862832</v>
       </c>
       <c r="D56">
-        <f>C56/4</f>
+        <f t="shared" si="7"/>
         <v>1965708</v>
       </c>
       <c r="E56" s="1">
-        <f>B56/D56</f>
+        <f t="shared" si="8"/>
         <v>125.24375085211028</v>
       </c>
       <c r="F56" s="2">
+        <f t="shared" si="6"/>
+        <v>798443.03064734559</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" si="2"/>
+        <v>399221.51532367279</v>
+      </c>
+      <c r="H56" s="2">
+        <f t="shared" si="3"/>
+        <v>199610.7576618364</v>
+      </c>
+      <c r="I56" s="2">
         <f t="shared" si="4"/>
-        <v>798443.03064734559</v>
-      </c>
-      <c r="G56" s="2">
-        <f t="shared" si="0"/>
-        <v>399221.51532367279</v>
-      </c>
-      <c r="H56" s="2">
-        <f t="shared" si="1"/>
-        <v>199610.7576618364</v>
-      </c>
-      <c r="I56" s="2">
-        <f t="shared" si="2"/>
         <v>79844.303064734559</v>
       </c>
       <c r="J56" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>39922.151532367279</v>
       </c>
     </row>
@@ -2731,31 +2734,31 @@
         <v>8103856</v>
       </c>
       <c r="D57">
-        <f>C57/4</f>
+        <f t="shared" si="7"/>
         <v>2025964</v>
       </c>
       <c r="E57" s="1">
-        <f>B57/D57</f>
+        <f t="shared" si="8"/>
         <v>121.51623424700537</v>
       </c>
       <c r="F57" s="2">
+        <f t="shared" si="6"/>
+        <v>822935.31082217838</v>
+      </c>
+      <c r="G57" s="2">
+        <f t="shared" si="2"/>
+        <v>411467.65541108919</v>
+      </c>
+      <c r="H57" s="2">
+        <f t="shared" si="3"/>
+        <v>205733.82770554459</v>
+      </c>
+      <c r="I57" s="2">
         <f t="shared" si="4"/>
-        <v>822935.31082217838</v>
-      </c>
-      <c r="G57" s="2">
-        <f t="shared" si="0"/>
-        <v>411467.65541108919</v>
-      </c>
-      <c r="H57" s="2">
-        <f t="shared" si="1"/>
-        <v>205733.82770554459</v>
-      </c>
-      <c r="I57" s="2">
-        <f t="shared" si="2"/>
         <v>82293.531082217829</v>
       </c>
       <c r="J57" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41146.765541108914</v>
       </c>
     </row>
@@ -2770,31 +2773,31 @@
         <v>7631592</v>
       </c>
       <c r="D58">
-        <f>C58/4</f>
+        <f t="shared" si="7"/>
         <v>1907898</v>
       </c>
       <c r="E58" s="1">
-        <f>B58/D58</f>
+        <f t="shared" si="8"/>
         <v>123.81250989308653</v>
       </c>
       <c r="F58" s="2">
+        <f t="shared" si="6"/>
+        <v>807672.82794243575</v>
+      </c>
+      <c r="G58" s="2">
+        <f t="shared" si="2"/>
+        <v>403836.41397121787</v>
+      </c>
+      <c r="H58" s="2">
+        <f t="shared" si="3"/>
+        <v>201918.20698560894</v>
+      </c>
+      <c r="I58" s="2">
         <f t="shared" si="4"/>
-        <v>807672.82794243575</v>
-      </c>
-      <c r="G58" s="2">
-        <f t="shared" si="0"/>
-        <v>403836.41397121787</v>
-      </c>
-      <c r="H58" s="2">
-        <f t="shared" si="1"/>
-        <v>201918.20698560894</v>
-      </c>
-      <c r="I58" s="2">
-        <f t="shared" si="2"/>
         <v>80767.282794243569</v>
       </c>
       <c r="J58" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>40383.641397121784</v>
       </c>
     </row>
@@ -2809,31 +2812,31 @@
         <v>7755040</v>
       </c>
       <c r="D59">
-        <f>C59/4</f>
+        <f t="shared" si="7"/>
         <v>1938760</v>
       </c>
       <c r="E59" s="1">
-        <f>B59/D59</f>
+        <f t="shared" si="8"/>
         <v>121.69882450638552</v>
       </c>
       <c r="F59" s="2">
+        <f t="shared" si="6"/>
+        <v>821700.62369627086</v>
+      </c>
+      <c r="G59" s="2">
+        <f t="shared" si="2"/>
+        <v>410850.31184813543</v>
+      </c>
+      <c r="H59" s="2">
+        <f t="shared" si="3"/>
+        <v>205425.15592406772</v>
+      </c>
+      <c r="I59" s="2">
         <f t="shared" si="4"/>
-        <v>821700.62369627086</v>
-      </c>
-      <c r="G59" s="2">
-        <f t="shared" si="0"/>
-        <v>410850.31184813543</v>
-      </c>
-      <c r="H59" s="2">
-        <f t="shared" si="1"/>
-        <v>205425.15592406772</v>
-      </c>
-      <c r="I59" s="2">
-        <f t="shared" si="2"/>
         <v>82170.062369627092</v>
       </c>
       <c r="J59" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41085.031184813546</v>
       </c>
     </row>
@@ -2848,31 +2851,31 @@
         <v>8433744</v>
       </c>
       <c r="D60">
-        <f>C60/4</f>
+        <f t="shared" si="7"/>
         <v>2108436</v>
       </c>
       <c r="E60" s="1">
-        <f>B60/D60</f>
+        <f t="shared" si="8"/>
         <v>111.11388583765407</v>
       </c>
       <c r="F60" s="2">
+        <f t="shared" si="6"/>
+        <v>899977.525276253</v>
+      </c>
+      <c r="G60" s="2">
+        <f t="shared" si="2"/>
+        <v>449988.7626381265</v>
+      </c>
+      <c r="H60" s="2">
+        <f t="shared" si="3"/>
+        <v>224994.38131906325</v>
+      </c>
+      <c r="I60" s="2">
         <f t="shared" si="4"/>
-        <v>899977.525276253</v>
-      </c>
-      <c r="G60" s="2">
-        <f t="shared" si="0"/>
-        <v>449988.7626381265</v>
-      </c>
-      <c r="H60" s="2">
-        <f t="shared" si="1"/>
-        <v>224994.38131906325</v>
-      </c>
-      <c r="I60" s="2">
-        <f t="shared" si="2"/>
         <v>89997.7525276253</v>
       </c>
       <c r="J60" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44998.87626381265</v>
       </c>
     </row>
@@ -2887,31 +2890,31 @@
         <v>7673096</v>
       </c>
       <c r="D61">
-        <f>C61/4</f>
+        <f t="shared" si="7"/>
         <v>1918274</v>
       </c>
       <c r="E61" s="1">
-        <f>B61/D61</f>
+        <f t="shared" si="8"/>
         <v>120.7126354212172</v>
       </c>
       <c r="F61" s="2">
+        <f t="shared" si="6"/>
+        <v>828413.69216286181</v>
+      </c>
+      <c r="G61" s="2">
+        <f t="shared" si="2"/>
+        <v>414206.84608143091</v>
+      </c>
+      <c r="H61" s="2">
+        <f t="shared" si="3"/>
+        <v>207103.42304071545</v>
+      </c>
+      <c r="I61" s="2">
         <f t="shared" si="4"/>
-        <v>828413.69216286181</v>
-      </c>
-      <c r="G61" s="2">
-        <f t="shared" si="0"/>
-        <v>414206.84608143091</v>
-      </c>
-      <c r="H61" s="2">
-        <f t="shared" si="1"/>
-        <v>207103.42304071545</v>
-      </c>
-      <c r="I61" s="2">
-        <f t="shared" si="2"/>
         <v>82841.369216286184</v>
       </c>
       <c r="J61" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41420.684608143092</v>
       </c>
     </row>
@@ -2926,31 +2929,31 @@
         <v>7367400</v>
       </c>
       <c r="D62">
-        <f>C62/4</f>
+        <f t="shared" si="7"/>
         <v>1841850</v>
       </c>
       <c r="E62" s="1">
-        <f>B62/D62</f>
+        <f t="shared" si="8"/>
         <v>121.11589543122405</v>
       </c>
       <c r="F62" s="2">
+        <f t="shared" si="6"/>
+        <v>825655.45706414105</v>
+      </c>
+      <c r="G62" s="2">
+        <f t="shared" si="2"/>
+        <v>412827.72853207053</v>
+      </c>
+      <c r="H62" s="2">
+        <f t="shared" si="3"/>
+        <v>206413.86426603526</v>
+      </c>
+      <c r="I62" s="2">
         <f t="shared" si="4"/>
-        <v>825655.45706414105</v>
-      </c>
-      <c r="G62" s="2">
-        <f t="shared" si="0"/>
-        <v>412827.72853207053</v>
-      </c>
-      <c r="H62" s="2">
-        <f t="shared" si="1"/>
-        <v>206413.86426603526</v>
-      </c>
-      <c r="I62" s="2">
-        <f t="shared" si="2"/>
         <v>82565.545706414108</v>
       </c>
       <c r="J62" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41282.772853207054</v>
       </c>
     </row>
@@ -2965,31 +2968,31 @@
         <v>6998408</v>
       </c>
       <c r="D63">
-        <f>C63/4</f>
+        <f t="shared" si="7"/>
         <v>1749602</v>
       </c>
       <c r="E63" s="1">
-        <f>B63/D63</f>
+        <f t="shared" si="8"/>
         <v>124.61448489427882</v>
       </c>
       <c r="F63" s="2">
+        <f t="shared" si="6"/>
+        <v>802474.929658768</v>
+      </c>
+      <c r="G63" s="2">
+        <f t="shared" si="2"/>
+        <v>401237.464829384</v>
+      </c>
+      <c r="H63" s="2">
+        <f t="shared" si="3"/>
+        <v>200618.732414692</v>
+      </c>
+      <c r="I63" s="2">
         <f t="shared" si="4"/>
-        <v>802474.929658768</v>
-      </c>
-      <c r="G63" s="2">
-        <f t="shared" si="0"/>
-        <v>401237.464829384</v>
-      </c>
-      <c r="H63" s="2">
-        <f t="shared" si="1"/>
-        <v>200618.732414692</v>
-      </c>
-      <c r="I63" s="2">
-        <f t="shared" si="2"/>
         <v>80247.492965876794</v>
       </c>
       <c r="J63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>40123.746482938397</v>
       </c>
     </row>
@@ -3004,31 +3007,31 @@
         <v>7651608</v>
       </c>
       <c r="D64">
-        <f>C64/4</f>
+        <f t="shared" si="7"/>
         <v>1912902</v>
       </c>
       <c r="E64" s="1">
-        <f>B64/D64</f>
+        <f t="shared" si="8"/>
         <v>111.08719997156153</v>
       </c>
       <c r="F64" s="2">
+        <f t="shared" si="6"/>
+        <v>900193.72191935824</v>
+      </c>
+      <c r="G64" s="2">
+        <f t="shared" si="2"/>
+        <v>450096.86095967912</v>
+      </c>
+      <c r="H64" s="2">
+        <f t="shared" si="3"/>
+        <v>225048.43047983956</v>
+      </c>
+      <c r="I64" s="2">
         <f t="shared" si="4"/>
-        <v>900193.72191935824</v>
-      </c>
-      <c r="G64" s="2">
-        <f t="shared" si="0"/>
-        <v>450096.86095967912</v>
-      </c>
-      <c r="H64" s="2">
-        <f t="shared" si="1"/>
-        <v>225048.43047983956</v>
-      </c>
-      <c r="I64" s="2">
-        <f t="shared" si="2"/>
         <v>90019.372191935821</v>
       </c>
       <c r="J64" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>45009.686095967911</v>
       </c>
     </row>
@@ -3043,31 +3046,31 @@
         <v>6377928</v>
       </c>
       <c r="D65">
-        <f>C65/4</f>
+        <f t="shared" si="7"/>
         <v>1594482</v>
       </c>
       <c r="E65" s="1">
-        <f>B65/D65</f>
+        <f t="shared" si="8"/>
         <v>132.3236762785657</v>
       </c>
       <c r="F65" s="2">
+        <f t="shared" si="6"/>
+        <v>755722.65532799729</v>
+      </c>
+      <c r="G65" s="2">
+        <f t="shared" si="2"/>
+        <v>377861.32766399864</v>
+      </c>
+      <c r="H65" s="2">
+        <f t="shared" si="3"/>
+        <v>188930.66383199932</v>
+      </c>
+      <c r="I65" s="2">
         <f t="shared" si="4"/>
-        <v>755722.65532799729</v>
-      </c>
-      <c r="G65" s="2">
-        <f t="shared" si="0"/>
-        <v>377861.32766399864</v>
-      </c>
-      <c r="H65" s="2">
-        <f t="shared" si="1"/>
-        <v>188930.66383199932</v>
-      </c>
-      <c r="I65" s="2">
-        <f t="shared" si="2"/>
         <v>75572.265532799735</v>
       </c>
       <c r="J65" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>37786.132766399867</v>
       </c>
     </row>
@@ -3082,31 +3085,31 @@
         <v>7822680</v>
       </c>
       <c r="D66">
-        <f>C66/4</f>
+        <f t="shared" ref="D66:D97" si="9">C66/4</f>
         <v>1955670</v>
       </c>
       <c r="E66" s="1">
-        <f>B66/D66</f>
+        <f t="shared" ref="E66:E97" si="10">B66/D66</f>
         <v>106.81824285283304</v>
       </c>
       <c r="F66" s="2">
+        <f t="shared" si="6"/>
+        <v>936169.67784962768</v>
+      </c>
+      <c r="G66" s="2">
+        <f t="shared" si="2"/>
+        <v>468084.83892481384</v>
+      </c>
+      <c r="H66" s="2">
+        <f t="shared" si="3"/>
+        <v>234042.41946240692</v>
+      </c>
+      <c r="I66" s="2">
         <f t="shared" si="4"/>
-        <v>936169.67784962768</v>
-      </c>
-      <c r="G66" s="2">
-        <f t="shared" si="0"/>
-        <v>468084.83892481384</v>
-      </c>
-      <c r="H66" s="2">
-        <f t="shared" si="1"/>
-        <v>234042.41946240692</v>
-      </c>
-      <c r="I66" s="2">
-        <f t="shared" si="2"/>
         <v>93616.967784962762</v>
       </c>
       <c r="J66" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>46808.483892481381</v>
       </c>
     </row>
@@ -3121,31 +3124,31 @@
         <v>6025144</v>
       </c>
       <c r="D67">
-        <f>C67/4</f>
+        <f t="shared" si="9"/>
         <v>1506286</v>
       </c>
       <c r="E67" s="1">
-        <f>B67/D67</f>
+        <f t="shared" si="10"/>
         <v>135.75516601760887</v>
       </c>
       <c r="F67" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>736620.2180993167</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" ref="G67:G101" si="5">50000000/E67</f>
+        <f t="shared" ref="G67:G101" si="11">50000000/E67</f>
         <v>368310.10904965835</v>
       </c>
       <c r="H67" s="2">
-        <f t="shared" ref="H67:H130" si="6">25000000/E67</f>
+        <f t="shared" ref="H67:H130" si="12">25000000/E67</f>
         <v>184155.05452482917</v>
       </c>
       <c r="I67" s="2">
-        <f t="shared" ref="I67:I130" si="7">10000000/E67</f>
+        <f t="shared" ref="I67:I130" si="13">10000000/E67</f>
         <v>73662.02180993167</v>
       </c>
       <c r="J67" s="2">
-        <f t="shared" ref="J67:J130" si="8">5000000/E67</f>
+        <f t="shared" ref="J67:J130" si="14">5000000/E67</f>
         <v>36831.010904965835</v>
       </c>
     </row>
@@ -3160,27 +3163,27 @@
         <v>6512952</v>
       </c>
       <c r="D68">
-        <f>C68/4</f>
+        <f t="shared" si="9"/>
         <v>1628238</v>
       </c>
       <c r="E68" s="1">
-        <f>B68/D68</f>
+        <f t="shared" si="10"/>
         <v>122.71398161693807</v>
       </c>
       <c r="G68" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>407451.53356753732</v>
       </c>
       <c r="H68" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>203725.76678376866</v>
       </c>
       <c r="I68" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>81490.306713507467</v>
       </c>
       <c r="J68" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>40745.153356753734</v>
       </c>
     </row>
@@ -3195,27 +3198,27 @@
         <v>5837160</v>
       </c>
       <c r="D69">
-        <f>C69/4</f>
+        <f t="shared" si="9"/>
         <v>1459290</v>
       </c>
       <c r="E69" s="1">
-        <f>B69/D69</f>
+        <f t="shared" si="10"/>
         <v>134.04337725880393</v>
       </c>
       <c r="G69" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>373013.57980157883</v>
       </c>
       <c r="H69" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>186506.78990078942</v>
       </c>
       <c r="I69" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>74602.715960315778</v>
       </c>
       <c r="J69" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>37301.357980157889</v>
       </c>
     </row>
@@ -3230,27 +3233,27 @@
         <v>6213840</v>
       </c>
       <c r="D70">
-        <f>C70/4</f>
+        <f t="shared" si="9"/>
         <v>1553460</v>
       </c>
       <c r="E70" s="1">
-        <f>B70/D70</f>
+        <f t="shared" si="10"/>
         <v>125.23199309927517</v>
       </c>
       <c r="G70" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>399258.99734234443</v>
       </c>
       <c r="H70" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>199629.49867117222</v>
       </c>
       <c r="I70" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>79851.799468468889</v>
       </c>
       <c r="J70" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>39925.899734234445</v>
       </c>
     </row>
@@ -3265,27 +3268,27 @@
         <v>6138688</v>
       </c>
       <c r="D71">
-        <f>C71/4</f>
+        <f t="shared" si="9"/>
         <v>1534672</v>
       </c>
       <c r="E71" s="1">
-        <f>B71/D71</f>
+        <f t="shared" si="10"/>
         <v>123.3983359310654</v>
       </c>
       <c r="G71" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>405191.84981499054</v>
       </c>
       <c r="H71" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>202595.92490749527</v>
       </c>
       <c r="I71" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>81038.369962998098</v>
       </c>
       <c r="J71" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>40519.184981499049</v>
       </c>
     </row>
@@ -3300,27 +3303,27 @@
         <v>5800928</v>
       </c>
       <c r="D72">
-        <f>C72/4</f>
+        <f t="shared" si="9"/>
         <v>1450232</v>
       </c>
       <c r="E72" s="1">
-        <f>B72/D72</f>
+        <f t="shared" si="10"/>
         <v>121.7418833676267</v>
       </c>
       <c r="G72" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>410704.99828735093</v>
       </c>
       <c r="H72" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>205352.49914367546</v>
       </c>
       <c r="I72" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>82140.99965747018</v>
       </c>
       <c r="J72" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>41070.49982873509</v>
       </c>
     </row>
@@ -3335,27 +3338,27 @@
         <v>5189328</v>
       </c>
       <c r="D73">
-        <f>C73/4</f>
+        <f t="shared" si="9"/>
         <v>1297332</v>
       </c>
       <c r="E73" s="1">
-        <f>B73/D73</f>
+        <f t="shared" si="10"/>
         <v>135.59653195943676</v>
       </c>
       <c r="G73" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>368740.99416463933</v>
       </c>
       <c r="H73" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>184370.49708231966</v>
       </c>
       <c r="I73" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>73748.198832927868</v>
       </c>
       <c r="J73" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>36874.099416463934</v>
       </c>
     </row>
@@ -3370,27 +3373,27 @@
         <v>5586128</v>
       </c>
       <c r="D74">
-        <f>C74/4</f>
+        <f t="shared" si="9"/>
         <v>1396532</v>
       </c>
       <c r="E74" s="1">
-        <f>B74/D74</f>
+        <f t="shared" si="10"/>
         <v>125.35233922316138</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>398875.68361198553</v>
       </c>
       <c r="H74" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>199437.84180599276</v>
       </c>
       <c r="I74" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>79775.136722397103</v>
       </c>
       <c r="J74" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>39887.568361198551</v>
       </c>
     </row>
@@ -3405,27 +3408,27 @@
         <v>4917960</v>
       </c>
       <c r="D75">
-        <f>C75/4</f>
+        <f t="shared" si="9"/>
         <v>1229490</v>
       </c>
       <c r="E75" s="1">
-        <f>B75/D75</f>
+        <f t="shared" si="10"/>
         <v>134.53231421158367</v>
       </c>
       <c r="G75" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>371657.91945987975</v>
       </c>
       <c r="H75" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>185828.95972993987</v>
       </c>
       <c r="I75" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>74331.583891975955</v>
       </c>
       <c r="J75" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>37165.791945987978</v>
       </c>
     </row>
@@ -3440,27 +3443,27 @@
         <v>5432248</v>
       </c>
       <c r="D76">
-        <f>C76/4</f>
+        <f t="shared" si="9"/>
         <v>1358062</v>
       </c>
       <c r="E76" s="1">
-        <f>B76/D76</f>
+        <f t="shared" si="10"/>
         <v>115.98235058487757</v>
       </c>
       <c r="G76" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>431100.07469118567</v>
       </c>
       <c r="H76" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>215550.03734559283</v>
       </c>
       <c r="I76" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>86220.014938237131</v>
       </c>
       <c r="J76" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>43110.007469118565</v>
       </c>
     </row>
@@ -3475,27 +3478,27 @@
         <v>5694584</v>
       </c>
       <c r="D77">
-        <f>C77/4</f>
+        <f t="shared" si="9"/>
         <v>1423646</v>
       </c>
       <c r="E77" s="1">
-        <f>B77/D77</f>
+        <f t="shared" si="10"/>
         <v>108.63912025882838</v>
       </c>
       <c r="G77" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>460239.36755817785</v>
       </c>
       <c r="H77" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>230119.68377908893</v>
       </c>
       <c r="I77" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>92047.873511635567</v>
       </c>
       <c r="J77" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>46023.936755817784</v>
       </c>
     </row>
@@ -3510,27 +3513,27 @@
         <v>4544424</v>
       </c>
       <c r="D78">
-        <f>C78/4</f>
+        <f t="shared" si="9"/>
         <v>1136106</v>
       </c>
       <c r="E78" s="1">
-        <f>B78/D78</f>
+        <f t="shared" si="10"/>
         <v>135.88126195971151</v>
       </c>
       <c r="G78" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>367968.3223344282</v>
       </c>
       <c r="H78" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>183984.1611672141</v>
       </c>
       <c r="I78" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>73593.664466885632</v>
       </c>
       <c r="J78" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>36796.832233442816</v>
       </c>
     </row>
@@ -3545,27 +3548,27 @@
         <v>5438920</v>
       </c>
       <c r="D79">
-        <f>C79/4</f>
+        <f t="shared" si="9"/>
         <v>1359730</v>
       </c>
       <c r="E79" s="1">
-        <f>B79/D79</f>
+        <f t="shared" si="10"/>
         <v>112.88723423032513</v>
       </c>
       <c r="G79" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>442919.87788437103</v>
       </c>
       <c r="H79" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>221459.93894218552</v>
       </c>
       <c r="I79" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>88583.975576874203</v>
       </c>
       <c r="J79" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>44291.987788437102</v>
       </c>
     </row>
@@ -3580,27 +3583,27 @@
         <v>5328440</v>
       </c>
       <c r="D80">
-        <f>C80/4</f>
+        <f t="shared" si="9"/>
         <v>1332110</v>
       </c>
       <c r="E80" s="1">
-        <f>B80/D80</f>
+        <f t="shared" si="10"/>
         <v>112.85094774455563</v>
       </c>
       <c r="G80" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>443062.2958805607</v>
       </c>
       <c r="H80" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>221531.14794028035</v>
       </c>
       <c r="I80" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>88612.459176112141</v>
       </c>
       <c r="J80" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>44306.22958805607</v>
       </c>
     </row>
@@ -3615,27 +3618,27 @@
         <v>5201000</v>
       </c>
       <c r="D81">
-        <f>C81/4</f>
+        <f t="shared" si="9"/>
         <v>1300250</v>
       </c>
       <c r="E81" s="1">
-        <f>B81/D81</f>
+        <f t="shared" si="10"/>
         <v>113.50109748125361</v>
       </c>
       <c r="G81" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>440524.37473794684</v>
       </c>
       <c r="H81" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>220262.18736897342</v>
       </c>
       <c r="I81" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>88104.874947589371</v>
       </c>
       <c r="J81" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>44052.437473794686</v>
       </c>
     </row>
@@ -3650,27 +3653,27 @@
         <v>4999048</v>
       </c>
       <c r="D82">
-        <f>C82/4</f>
+        <f t="shared" si="9"/>
         <v>1249762</v>
       </c>
       <c r="E82" s="1">
-        <f>B82/D82</f>
+        <f t="shared" si="10"/>
         <v>113.15384129138188</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>441876.29363147519</v>
       </c>
       <c r="H82" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>220938.14681573759</v>
       </c>
       <c r="I82" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>88375.25872629504</v>
       </c>
       <c r="J82" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>44187.62936314752</v>
       </c>
     </row>
@@ -3685,27 +3688,27 @@
         <v>5438720</v>
       </c>
       <c r="D83">
-        <f>C83/4</f>
+        <f t="shared" si="9"/>
         <v>1359680</v>
       </c>
       <c r="E83" s="1">
-        <f>B83/D83</f>
+        <f t="shared" si="10"/>
         <v>102.90911243822076</v>
       </c>
       <c r="G83" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>485865.62273594976</v>
       </c>
       <c r="H83" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>242932.81136797488</v>
       </c>
       <c r="I83" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>97173.124547189946</v>
       </c>
       <c r="J83" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>48586.562273594973</v>
       </c>
     </row>
@@ -3720,27 +3723,27 @@
         <v>4496336</v>
       </c>
       <c r="D84">
-        <f>C84/4</f>
+        <f t="shared" si="9"/>
         <v>1124084</v>
       </c>
       <c r="E84" s="1">
-        <f>B84/D84</f>
+        <f t="shared" si="10"/>
         <v>121.02158112738906</v>
       </c>
       <c r="G84" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>413149.45263662754</v>
       </c>
       <c r="H84" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>206574.72631831377</v>
       </c>
       <c r="I84" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>82629.890527325508</v>
       </c>
       <c r="J84" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>41314.945263662754</v>
       </c>
     </row>
@@ -3755,27 +3758,27 @@
         <v>4475256</v>
       </c>
       <c r="D85">
-        <f>C85/4</f>
+        <f t="shared" si="9"/>
         <v>1118814</v>
       </c>
       <c r="E85" s="1">
-        <f>B85/D85</f>
+        <f t="shared" si="10"/>
         <v>120.36966108754449</v>
       </c>
       <c r="G85" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>415387.06305432855</v>
       </c>
       <c r="H85" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>207693.53152716428</v>
       </c>
       <c r="I85" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>83077.412610865707</v>
       </c>
       <c r="J85" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>41538.706305432854</v>
       </c>
     </row>
@@ -3790,27 +3793,27 @@
         <v>4368488</v>
       </c>
       <c r="D86">
-        <f>C86/4</f>
+        <f t="shared" si="9"/>
         <v>1092122</v>
       </c>
       <c r="E86" s="1">
-        <f>B86/D86</f>
+        <f t="shared" si="10"/>
         <v>119.7839334799592</v>
       </c>
       <c r="G86" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>417418.25090729212</v>
       </c>
       <c r="H86" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>208709.12545364606</v>
       </c>
       <c r="I86" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>83483.650181458419</v>
       </c>
       <c r="J86" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>41741.825090729209</v>
       </c>
     </row>
@@ -3825,27 +3828,27 @@
         <v>5031848</v>
       </c>
       <c r="D87">
-        <f>C87/4</f>
+        <f t="shared" si="9"/>
         <v>1257962</v>
       </c>
       <c r="E87" s="1">
-        <f>B87/D87</f>
+        <f t="shared" si="10"/>
         <v>101.9527736131934</v>
       </c>
       <c r="G87" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>490423.14620786003</v>
       </c>
       <c r="H87" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>245211.57310393002</v>
       </c>
       <c r="I87" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>98084.629241572009</v>
       </c>
       <c r="J87" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>49042.314620786005</v>
       </c>
     </row>
@@ -3860,27 +3863,27 @@
         <v>4321768</v>
       </c>
       <c r="D88">
-        <f>C88/4</f>
+        <f t="shared" si="9"/>
         <v>1080442</v>
       </c>
       <c r="E88" s="1">
-        <f>B88/D88</f>
+        <f t="shared" si="10"/>
         <v>118.39514106263918</v>
       </c>
       <c r="G88" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>422314.62838113058</v>
       </c>
       <c r="H88" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>211157.31419056529</v>
       </c>
       <c r="I88" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>84462.925676226121</v>
       </c>
       <c r="J88" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>42231.462838113061</v>
       </c>
     </row>
@@ -3895,27 +3898,27 @@
         <v>4155504</v>
       </c>
       <c r="D89">
-        <f>C89/4</f>
+        <f t="shared" si="9"/>
         <v>1038876</v>
       </c>
       <c r="E89" s="1">
-        <f>B89/D89</f>
+        <f t="shared" si="10"/>
         <v>118.11841451722823</v>
       </c>
       <c r="G89" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>423304.02252992667</v>
       </c>
       <c r="H89" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>211652.01126496334</v>
       </c>
       <c r="I89" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>84660.804505985347</v>
       </c>
       <c r="J89" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>42330.402252992673</v>
       </c>
     </row>
@@ -3930,27 +3933,27 @@
         <v>4155200</v>
       </c>
       <c r="D90">
-        <f>C90/4</f>
+        <f t="shared" si="9"/>
         <v>1038800</v>
       </c>
       <c r="E90" s="1">
-        <f>B90/D90</f>
+        <f t="shared" si="10"/>
         <v>117.08633615710436</v>
       </c>
       <c r="G90" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>427035.31121608324</v>
       </c>
       <c r="H90" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>213517.65560804162</v>
       </c>
       <c r="I90" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>85407.062243216656</v>
       </c>
       <c r="J90" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>42703.531121608328</v>
       </c>
     </row>
@@ -3965,27 +3968,27 @@
         <v>4427480</v>
       </c>
       <c r="D91">
-        <f>C91/4</f>
+        <f t="shared" si="9"/>
         <v>1106870</v>
       </c>
       <c r="E91" s="1">
-        <f>B91/D91</f>
+        <f t="shared" si="10"/>
         <v>109.79066828082792</v>
       </c>
       <c r="G91" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>455412.11091007816</v>
       </c>
       <c r="H91" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>227706.05545503908</v>
       </c>
       <c r="I91" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>91082.422182015624</v>
       </c>
       <c r="J91" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>45541.211091007812</v>
       </c>
     </row>
@@ -4000,27 +4003,27 @@
         <v>3219656</v>
       </c>
       <c r="D92">
-        <f>C92/4</f>
+        <f t="shared" si="9"/>
         <v>804914</v>
       </c>
       <c r="E92" s="1">
-        <f>B92/D92</f>
+        <f t="shared" si="10"/>
         <v>148.22682920162899</v>
       </c>
       <c r="G92" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>337320.84987115482</v>
       </c>
       <c r="H92" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>168660.42493557741</v>
       </c>
       <c r="I92" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>67464.169974230972</v>
       </c>
       <c r="J92" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>33732.084987115486</v>
       </c>
     </row>
@@ -4035,27 +4038,27 @@
         <v>3862696</v>
       </c>
       <c r="D93">
-        <f>C93/4</f>
+        <f t="shared" si="9"/>
         <v>965674</v>
       </c>
       <c r="E93" s="1">
-        <f>B93/D93</f>
+        <f t="shared" si="10"/>
         <v>120.29026151682659</v>
       </c>
       <c r="G93" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>415661.24613509001</v>
       </c>
       <c r="H93" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>207830.62306754501</v>
       </c>
       <c r="I93" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>83132.249227017994</v>
       </c>
       <c r="J93" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>41566.124613508997</v>
       </c>
     </row>
@@ -4070,27 +4073,27 @@
         <v>3705016</v>
       </c>
       <c r="D94">
-        <f>C94/4</f>
+        <f t="shared" si="9"/>
         <v>926254</v>
       </c>
       <c r="E94" s="1">
-        <f>B94/D94</f>
+        <f t="shared" si="10"/>
         <v>119.86707101939641</v>
       </c>
       <c r="G94" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>417128.73748211632</v>
       </c>
       <c r="H94" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>208564.36874105816</v>
       </c>
       <c r="I94" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>83425.747496423268</v>
       </c>
       <c r="J94" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>41712.873748211634</v>
       </c>
     </row>
@@ -4105,27 +4108,27 @@
         <v>3365040</v>
       </c>
       <c r="D95">
-        <f>C95/4</f>
+        <f t="shared" si="9"/>
         <v>841260</v>
       </c>
       <c r="E95" s="1">
-        <f>B95/D95</f>
+        <f t="shared" si="10"/>
         <v>131.06903335472981</v>
       </c>
       <c r="G95" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>381478.36083202239</v>
       </c>
       <c r="H95" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>190739.18041601119</v>
       </c>
       <c r="I95" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>76295.672166404489</v>
       </c>
       <c r="J95" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>38147.836083202244</v>
       </c>
     </row>
@@ -4140,27 +4143,27 @@
         <v>4284048</v>
       </c>
       <c r="D96">
-        <f>C96/4</f>
+        <f t="shared" si="9"/>
         <v>1071012</v>
       </c>
       <c r="E96" s="1">
-        <f>B96/D96</f>
+        <f t="shared" si="10"/>
         <v>102.59935929756156</v>
       </c>
       <c r="G96" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>487332.47792501887</v>
       </c>
       <c r="H96" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>243666.23896250944</v>
       </c>
       <c r="I96" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>97466.49558500378</v>
       </c>
       <c r="J96" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>48733.24779250189</v>
       </c>
     </row>
@@ -4175,27 +4178,27 @@
         <v>4625008</v>
       </c>
       <c r="D97">
-        <f>C97/4</f>
+        <f t="shared" si="9"/>
         <v>1156252</v>
       </c>
       <c r="E97" s="1">
-        <f>B97/D97</f>
+        <f t="shared" si="10"/>
         <v>94.96581281589134</v>
       </c>
       <c r="G97" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>526505.26033967803</v>
       </c>
       <c r="H97" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>263252.63016983902</v>
       </c>
       <c r="I97" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>105301.0520679356</v>
       </c>
       <c r="J97" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>52650.526033967799</v>
       </c>
     </row>
@@ -4210,27 +4213,27 @@
         <v>4125432</v>
       </c>
       <c r="D98">
-        <f>C98/4</f>
+        <f t="shared" ref="D98:D129" si="15">C98/4</f>
         <v>1031358</v>
       </c>
       <c r="E98" s="1">
-        <f>B98/D98</f>
+        <f t="shared" ref="E98:E129" si="16">B98/D98</f>
         <v>106.13429478415836</v>
       </c>
       <c r="G98" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>471101.25998088811</v>
       </c>
       <c r="H98" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>235550.62999044405</v>
       </c>
       <c r="I98" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>94220.251996177612</v>
       </c>
       <c r="J98" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>47110.125998088806</v>
       </c>
     </row>
@@ -4245,27 +4248,27 @@
         <v>3503752</v>
       </c>
       <c r="D99">
-        <f>C99/4</f>
+        <f t="shared" si="15"/>
         <v>875938</v>
       </c>
       <c r="E99" s="1">
-        <f>B99/D99</f>
+        <f t="shared" si="16"/>
         <v>123.1100956917042</v>
       </c>
       <c r="G99" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>406140.53395922476</v>
       </c>
       <c r="H99" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>203070.26697961238</v>
       </c>
       <c r="I99" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>81228.106791844955</v>
       </c>
       <c r="J99" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>40614.053395922478</v>
       </c>
     </row>
@@ -4280,27 +4283,27 @@
         <v>3843408</v>
       </c>
       <c r="D100">
-        <f>C100/4</f>
+        <f t="shared" si="15"/>
         <v>960852</v>
       </c>
       <c r="E100" s="1">
-        <f>B100/D100</f>
+        <f t="shared" si="16"/>
         <v>111.7200474162514</v>
       </c>
       <c r="G100" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>447547.25008044287</v>
       </c>
       <c r="H100" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>223773.62504022144</v>
       </c>
       <c r="I100" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>89509.450016088565</v>
       </c>
       <c r="J100" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>44754.725008044283</v>
       </c>
     </row>
@@ -4315,27 +4318,27 @@
         <v>3616680</v>
       </c>
       <c r="D101">
-        <f>C101/4</f>
+        <f t="shared" si="15"/>
         <v>904170</v>
       </c>
       <c r="E101" s="1">
-        <f>B101/D101</f>
+        <f t="shared" si="16"/>
         <v>116.96872933187343</v>
       </c>
       <c r="G101" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>427464.67611985275</v>
       </c>
       <c r="H101" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>213732.33805992638</v>
       </c>
       <c r="I101" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>85492.935223970548</v>
       </c>
       <c r="J101" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>42746.467611985274</v>
       </c>
     </row>
@@ -4350,23 +4353,23 @@
         <v>2743608</v>
       </c>
       <c r="D102">
-        <f>C102/4</f>
+        <f t="shared" si="15"/>
         <v>685902</v>
       </c>
       <c r="E102" s="1">
-        <f>B102/D102</f>
+        <f t="shared" si="16"/>
         <v>145.30654379197028</v>
       </c>
       <c r="H102" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>172050.06290557378</v>
       </c>
       <c r="I102" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>68820.025162229518</v>
       </c>
       <c r="J102" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>34410.012581114759</v>
       </c>
     </row>
@@ -4381,23 +4384,23 @@
         <v>3113536</v>
       </c>
       <c r="D103">
-        <f>C103/4</f>
+        <f t="shared" si="15"/>
         <v>778384</v>
       </c>
       <c r="E103" s="1">
-        <f>B103/D103</f>
+        <f t="shared" si="16"/>
         <v>124.37205158379412</v>
       </c>
       <c r="H103" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>201009.79023536138</v>
       </c>
       <c r="I103" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>80403.916094144544</v>
       </c>
       <c r="J103" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>40201.958047072272</v>
       </c>
     </row>
@@ -4412,23 +4415,23 @@
         <v>3625448</v>
       </c>
       <c r="D104">
-        <f>C104/4</f>
+        <f t="shared" si="15"/>
         <v>906362</v>
       </c>
       <c r="E104" s="1">
-        <f>B104/D104</f>
+        <f t="shared" si="16"/>
         <v>103.69994770301491</v>
       </c>
       <c r="H104" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>241080.16015203029</v>
       </c>
       <c r="I104" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>96432.064060812118</v>
       </c>
       <c r="J104" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>48216.032030406059</v>
       </c>
     </row>
@@ -4443,23 +4446,23 @@
         <v>3051824</v>
       </c>
       <c r="D105">
-        <f>C105/4</f>
+        <f t="shared" si="15"/>
         <v>762956</v>
       </c>
       <c r="E105" s="1">
-        <f>B105/D105</f>
+        <f t="shared" si="16"/>
         <v>122.72577710903381</v>
       </c>
       <c r="H105" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>203706.18617300861</v>
       </c>
       <c r="I105" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>81482.474469203444</v>
       </c>
       <c r="J105" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>40741.237234601722</v>
       </c>
     </row>
@@ -4474,23 +4477,23 @@
         <v>3083424</v>
       </c>
       <c r="D106">
-        <f>C106/4</f>
+        <f t="shared" si="15"/>
         <v>770856</v>
       </c>
       <c r="E106" s="1">
-        <f>B106/D106</f>
+        <f t="shared" si="16"/>
         <v>119.3734977739033</v>
       </c>
       <c r="H106" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>209426.71921493573</v>
       </c>
       <c r="I106" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>83770.687685974292</v>
       </c>
       <c r="J106" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>41885.343842987146</v>
       </c>
     </row>
@@ -4505,23 +4508,23 @@
         <v>3005208</v>
       </c>
       <c r="D107">
-        <f>C107/4</f>
+        <f t="shared" si="15"/>
         <v>751302</v>
       </c>
       <c r="E107" s="1">
-        <f>B107/D107</f>
+        <f t="shared" si="16"/>
         <v>122.03086774692467</v>
       </c>
       <c r="H107" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>204866.19870512254</v>
       </c>
       <c r="I107" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>81946.479482049021</v>
       </c>
       <c r="J107" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>40973.23974102451</v>
       </c>
     </row>
@@ -4536,23 +4539,23 @@
         <v>3323144</v>
       </c>
       <c r="D108">
-        <f>C108/4</f>
+        <f t="shared" si="15"/>
         <v>830786</v>
       </c>
       <c r="E108" s="1">
-        <f>B108/D108</f>
+        <f t="shared" si="16"/>
         <v>110.17253299887095</v>
       </c>
       <c r="H108" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>226916.81238059764</v>
       </c>
       <c r="I108" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>90766.724952239048</v>
       </c>
       <c r="J108" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>45383.362476119524</v>
       </c>
     </row>
@@ -4567,23 +4570,23 @@
         <v>3307024</v>
       </c>
       <c r="D109">
-        <f>C109/4</f>
+        <f t="shared" si="15"/>
         <v>826756</v>
       </c>
       <c r="E109" s="1">
-        <f>B109/D109</f>
+        <f t="shared" si="16"/>
         <v>109.79455728171311</v>
       </c>
       <c r="H109" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>227697.98994548054</v>
       </c>
       <c r="I109" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>91079.19597819222</v>
       </c>
       <c r="J109" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>45539.59798909611</v>
       </c>
     </row>
@@ -4598,23 +4601,23 @@
         <v>2954120</v>
       </c>
       <c r="D110">
-        <f>C110/4</f>
+        <f t="shared" si="15"/>
         <v>738530</v>
       </c>
       <c r="E110" s="1">
-        <f>B110/D110</f>
+        <f t="shared" si="16"/>
         <v>121.73492749109718</v>
       </c>
       <c r="H110" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>205364.23288894078</v>
       </c>
       <c r="I110" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>82145.693155576315</v>
       </c>
       <c r="J110" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>41072.846577788157</v>
       </c>
     </row>
@@ -4629,23 +4632,23 @@
         <v>2889152</v>
       </c>
       <c r="D111">
-        <f>C111/4</f>
+        <f t="shared" si="15"/>
         <v>722288</v>
       </c>
       <c r="E111" s="1">
-        <f>B111/D111</f>
+        <f t="shared" si="16"/>
         <v>123.05416814345524</v>
       </c>
       <c r="H111" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>203162.56147337705</v>
       </c>
       <c r="I111" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>81265.024589350811</v>
       </c>
       <c r="J111" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>40632.512294675405</v>
       </c>
     </row>
@@ -4660,23 +4663,23 @@
         <v>2900288</v>
       </c>
       <c r="D112">
-        <f>C112/4</f>
+        <f t="shared" si="15"/>
         <v>725072</v>
       </c>
       <c r="E112" s="1">
-        <f>B112/D112</f>
+        <f t="shared" si="16"/>
         <v>120.86368939912174</v>
       </c>
       <c r="H112" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>206844.58768624734</v>
       </c>
       <c r="I112" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>82737.835074498944</v>
       </c>
       <c r="J112" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>41368.917537249472</v>
       </c>
     </row>
@@ -4691,23 +4694,23 @@
         <v>2841448</v>
       </c>
       <c r="D113">
-        <f>C113/4</f>
+        <f t="shared" si="15"/>
         <v>710362</v>
       </c>
       <c r="E113" s="1">
-        <f>B113/D113</f>
+        <f t="shared" si="16"/>
         <v>122.68844758024781</v>
       </c>
       <c r="H113" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>203768.16638459827</v>
       </c>
       <c r="I113" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>81507.266553839305</v>
       </c>
       <c r="J113" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>40753.633276919652</v>
       </c>
     </row>
@@ -4722,23 +4725,23 @@
         <v>2824496</v>
       </c>
       <c r="D114">
-        <f>C114/4</f>
+        <f t="shared" si="15"/>
         <v>706124</v>
       </c>
       <c r="E114" s="1">
-        <f>B114/D114</f>
+        <f t="shared" si="16"/>
         <v>122.88618146387887</v>
       </c>
       <c r="H114" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>203440.28679374736</v>
       </c>
       <c r="I114" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>81376.114717498946</v>
       </c>
       <c r="J114" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>40688.057358749473</v>
       </c>
     </row>
@@ -4753,23 +4756,23 @@
         <v>2976000</v>
       </c>
       <c r="D115">
-        <f>C115/4</f>
+        <f t="shared" si="15"/>
         <v>744000</v>
       </c>
       <c r="E115" s="1">
-        <f>B115/D115</f>
+        <f t="shared" si="16"/>
         <v>114.89480241935483</v>
       </c>
       <c r="H115" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>217590.34763602653</v>
       </c>
       <c r="I115" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>87036.139054410611</v>
       </c>
       <c r="J115" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>43518.069527205305</v>
       </c>
     </row>
@@ -4784,23 +4787,23 @@
         <v>2705480</v>
       </c>
       <c r="D116">
-        <f>C116/4</f>
+        <f t="shared" si="15"/>
         <v>676370</v>
       </c>
       <c r="E116" s="1">
-        <f>B116/D116</f>
+        <f t="shared" si="16"/>
         <v>123.15784999334684</v>
       </c>
       <c r="H116" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>202991.52673865721</v>
       </c>
       <c r="I116" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>81196.610695462892</v>
       </c>
       <c r="J116" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>40598.305347731446</v>
       </c>
     </row>
@@ -4815,23 +4818,23 @@
         <v>2773816</v>
       </c>
       <c r="D117">
-        <f>C117/4</f>
+        <f t="shared" si="15"/>
         <v>693454</v>
       </c>
       <c r="E117" s="1">
-        <f>B117/D117</f>
+        <f t="shared" si="16"/>
         <v>119.32737715839839</v>
       </c>
       <c r="H117" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>209507.66366727665</v>
       </c>
       <c r="I117" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>83803.065466910659</v>
       </c>
       <c r="J117" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>41901.532733455329</v>
       </c>
     </row>
@@ -4846,23 +4849,23 @@
         <v>3607896</v>
       </c>
       <c r="D118">
-        <f>C118/4</f>
+        <f t="shared" si="15"/>
         <v>901974</v>
       </c>
       <c r="E118" s="1">
-        <f>B118/D118</f>
+        <f t="shared" si="16"/>
         <v>91.215762316873878</v>
       </c>
       <c r="H118" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>274075.43789583922</v>
       </c>
       <c r="I118" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>109630.1751583357</v>
       </c>
       <c r="J118" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>54815.087579167848</v>
       </c>
     </row>
@@ -4877,23 +4880,23 @@
         <v>2216536</v>
       </c>
       <c r="D119">
-        <f>C119/4</f>
+        <f t="shared" si="15"/>
         <v>554134</v>
       </c>
       <c r="E119" s="1">
-        <f>B119/D119</f>
+        <f t="shared" si="16"/>
         <v>148.39293925296047</v>
       </c>
       <c r="H119" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>168471.62759801757</v>
       </c>
       <c r="I119" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>67388.651039207019</v>
       </c>
       <c r="J119" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>33694.32551960351</v>
       </c>
     </row>
@@ -4908,23 +4911,23 @@
         <v>2826320</v>
       </c>
       <c r="D120">
-        <f>C120/4</f>
+        <f t="shared" si="15"/>
         <v>706580</v>
       </c>
       <c r="E120" s="1">
-        <f>B120/D120</f>
+        <f t="shared" si="16"/>
         <v>114.51310962665232</v>
       </c>
       <c r="H120" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>218315.61540427667</v>
       </c>
       <c r="I120" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>87326.24616171066</v>
       </c>
       <c r="J120" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>43663.12308085533</v>
       </c>
     </row>
@@ -4939,23 +4942,23 @@
         <v>2705888</v>
       </c>
       <c r="D121">
-        <f>C121/4</f>
+        <f t="shared" si="15"/>
         <v>676472</v>
       </c>
       <c r="E121" s="1">
-        <f>B121/D121</f>
+        <f t="shared" si="16"/>
         <v>118.06982107167777</v>
       </c>
       <c r="H121" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>211739.11989604027</v>
       </c>
       <c r="I121" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>84695.647958416113</v>
       </c>
       <c r="J121" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>42347.823979208057</v>
       </c>
     </row>
@@ -4970,23 +4973,23 @@
         <v>2582176</v>
       </c>
       <c r="D122">
-        <f>C122/4</f>
+        <f t="shared" si="15"/>
         <v>645544</v>
       </c>
       <c r="E122" s="1">
-        <f>B122/D122</f>
+        <f t="shared" si="16"/>
         <v>123.64639280978524</v>
       </c>
       <c r="H122" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>202189.48108303832</v>
       </c>
       <c r="I122" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>80875.792433215334</v>
       </c>
       <c r="J122" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>40437.896216607667</v>
       </c>
     </row>
@@ -5001,23 +5004,23 @@
         <v>2643104</v>
       </c>
       <c r="D123">
-        <f>C123/4</f>
+        <f t="shared" si="15"/>
         <v>660776</v>
       </c>
       <c r="E123" s="1">
-        <f>B123/D123</f>
+        <f t="shared" si="16"/>
         <v>119.52914149424313</v>
       </c>
       <c r="H123" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>209154.01622962439</v>
       </c>
       <c r="I123" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>83661.606491849758</v>
       </c>
       <c r="J123" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>41830.803245924879</v>
       </c>
     </row>
@@ -5032,23 +5035,23 @@
         <v>2591416</v>
       </c>
       <c r="D124">
-        <f>C124/4</f>
+        <f t="shared" si="15"/>
         <v>647854</v>
       </c>
       <c r="E124" s="1">
-        <f>B124/D124</f>
+        <f t="shared" si="16"/>
         <v>119.69861265038111</v>
       </c>
       <c r="H124" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>208857.89272278923</v>
       </c>
       <c r="I124" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>83543.157089115688</v>
       </c>
       <c r="J124" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>41771.578544557844</v>
       </c>
     </row>
@@ -5063,23 +5066,23 @@
         <v>2682256</v>
       </c>
       <c r="D125">
-        <f>C125/4</f>
+        <f t="shared" si="15"/>
         <v>670564</v>
       </c>
       <c r="E125" s="1">
-        <f>B125/D125</f>
+        <f t="shared" si="16"/>
         <v>115.55252742467535</v>
       </c>
       <c r="H125" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>216351.82334109157</v>
       </c>
       <c r="I125" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>86540.729336436634</v>
       </c>
       <c r="J125" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>43270.364668218317</v>
       </c>
     </row>
@@ -5094,23 +5097,23 @@
         <v>2916968</v>
       </c>
       <c r="D126">
-        <f>C126/4</f>
+        <f t="shared" si="15"/>
         <v>729242</v>
       </c>
       <c r="E126" s="1">
-        <f>B126/D126</f>
+        <f t="shared" si="16"/>
         <v>105.28599833800028</v>
       </c>
       <c r="H126" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>237448.47742947118</v>
       </c>
       <c r="I126" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>94979.390971788467</v>
       </c>
       <c r="J126" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>47489.695485894234</v>
       </c>
     </row>
@@ -5125,23 +5128,23 @@
         <v>2573176</v>
       </c>
       <c r="D127">
-        <f>C127/4</f>
+        <f t="shared" si="15"/>
         <v>643294</v>
       </c>
       <c r="E127" s="1">
-        <f>B127/D127</f>
+        <f t="shared" si="16"/>
         <v>119.26436434973745</v>
       </c>
       <c r="H127" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>209618.35613099494</v>
       </c>
       <c r="I127" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>83847.342452397977</v>
       </c>
       <c r="J127" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>41923.671226198989</v>
       </c>
     </row>
@@ -5156,23 +5159,23 @@
         <v>3018712</v>
       </c>
       <c r="D128">
-        <f>C128/4</f>
+        <f t="shared" si="15"/>
         <v>754678</v>
       </c>
       <c r="E128" s="1">
-        <f>B128/D128</f>
+        <f t="shared" si="16"/>
         <v>101.25227050477157</v>
       </c>
       <c r="H128" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>246908.04339861061</v>
       </c>
       <c r="I128" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>98763.217359444243</v>
       </c>
       <c r="J128" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>49381.608679722121</v>
       </c>
     </row>
@@ -5187,23 +5190,23 @@
         <v>3222488</v>
       </c>
       <c r="D129">
-        <f>C129/4</f>
+        <f t="shared" si="15"/>
         <v>805622</v>
       </c>
       <c r="E129" s="1">
-        <f>B129/D129</f>
+        <f t="shared" si="16"/>
         <v>94.56376811953993</v>
       </c>
       <c r="H129" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>264371.86775802972</v>
       </c>
       <c r="I129" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>105748.74710321191</v>
       </c>
       <c r="J129" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>52874.373551605953</v>
       </c>
     </row>
@@ -5218,23 +5221,23 @@
         <v>2442424</v>
       </c>
       <c r="D130">
-        <f>C130/4</f>
+        <f t="shared" ref="D130:D161" si="17">C130/4</f>
         <v>610606</v>
       </c>
       <c r="E130" s="1">
-        <f>B130/D130</f>
+        <f t="shared" ref="E130:E161" si="18">B130/D130</f>
         <v>122.48711771584296</v>
       </c>
       <c r="H130" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>204103.09644151587</v>
       </c>
       <c r="I130" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>81641.238576606338</v>
       </c>
       <c r="J130" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>40820.619288303169</v>
       </c>
     </row>
@@ -5249,23 +5252,23 @@
         <v>2670560</v>
       </c>
       <c r="D131">
-        <f>C131/4</f>
+        <f t="shared" si="17"/>
         <v>667640</v>
       </c>
       <c r="E131" s="1">
-        <f>B131/D131</f>
+        <f t="shared" si="18"/>
         <v>107.57045114133365</v>
       </c>
       <c r="H131" s="2">
-        <f t="shared" ref="H131:H168" si="9">25000000/E131</f>
+        <f t="shared" ref="H131:H168" si="19">25000000/E131</f>
         <v>232405.83017685066</v>
       </c>
       <c r="I131" s="2">
-        <f t="shared" ref="I131:I186" si="10">10000000/E131</f>
+        <f t="shared" ref="I131:I186" si="20">10000000/E131</f>
         <v>92962.33207074026</v>
       </c>
       <c r="J131" s="2">
-        <f t="shared" ref="J131:J189" si="11">5000000/E131</f>
+        <f t="shared" ref="J131:J189" si="21">5000000/E131</f>
         <v>46481.16603537013</v>
       </c>
     </row>
@@ -5280,23 +5283,23 @@
         <v>2390800</v>
       </c>
       <c r="D132">
-        <f>C132/4</f>
+        <f t="shared" si="17"/>
         <v>597700</v>
       </c>
       <c r="E132" s="1">
-        <f>B132/D132</f>
+        <f t="shared" si="18"/>
         <v>120.11460766270704</v>
       </c>
       <c r="H132" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>208134.55154598947</v>
       </c>
       <c r="I132" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>83253.820618395781</v>
       </c>
       <c r="J132" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>41626.91030919789</v>
       </c>
     </row>
@@ -5311,23 +5314,23 @@
         <v>2548360</v>
       </c>
       <c r="D133">
-        <f>C133/4</f>
+        <f t="shared" si="17"/>
         <v>637090</v>
       </c>
       <c r="E133" s="1">
-        <f>B133/D133</f>
+        <f t="shared" si="18"/>
         <v>111.79670062314587</v>
       </c>
       <c r="H133" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>223620.19505631205</v>
       </c>
       <c r="I133" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>89448.078022524816</v>
       </c>
       <c r="J133" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>44724.039011262408</v>
       </c>
     </row>
@@ -5342,23 +5345,23 @@
         <v>2473224</v>
       </c>
       <c r="D134">
-        <f>C134/4</f>
+        <f t="shared" si="17"/>
         <v>618306</v>
       </c>
       <c r="E134" s="1">
-        <f>B134/D134</f>
+        <f t="shared" si="18"/>
         <v>114.85317464168227</v>
       </c>
       <c r="H134" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>217669.21182627068</v>
       </c>
       <c r="I134" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>87067.684730508277</v>
       </c>
       <c r="J134" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>43533.842365254139</v>
       </c>
     </row>
@@ -5373,23 +5376,23 @@
         <v>2254120</v>
       </c>
       <c r="D135">
-        <f>C135/4</f>
+        <f t="shared" si="17"/>
         <v>563530</v>
       </c>
       <c r="E135" s="1">
-        <f>B135/D135</f>
+        <f t="shared" si="18"/>
         <v>124.21271094706582</v>
       </c>
       <c r="H135" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>201267.6465185108</v>
       </c>
       <c r="I135" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>80507.058607404324</v>
       </c>
       <c r="J135" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>40253.529303702162</v>
       </c>
     </row>
@@ -5404,23 +5407,23 @@
         <v>2255600</v>
       </c>
       <c r="D136">
-        <f>C136/4</f>
+        <f t="shared" si="17"/>
         <v>563900</v>
       </c>
       <c r="E136" s="1">
-        <f>B136/D136</f>
+        <f t="shared" si="18"/>
         <v>122.29918779925519</v>
       </c>
       <c r="H136" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>204416.72957825032</v>
       </c>
       <c r="I136" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>81766.691831300122</v>
       </c>
       <c r="J136" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>40883.345915650061</v>
       </c>
     </row>
@@ -5435,23 +5438,23 @@
         <v>2261840</v>
       </c>
       <c r="D137">
-        <f>C137/4</f>
+        <f t="shared" si="17"/>
         <v>565460</v>
       </c>
       <c r="E137" s="1">
-        <f>B137/D137</f>
+        <f t="shared" si="18"/>
         <v>121.48368231174619</v>
       </c>
       <c r="H137" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>205788.95473258768</v>
       </c>
       <c r="I137" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>82315.581893035065</v>
       </c>
       <c r="J137" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>41157.790946517533</v>
       </c>
     </row>
@@ -5466,23 +5469,23 @@
         <v>2237744</v>
       </c>
       <c r="D138">
-        <f>C138/4</f>
+        <f t="shared" si="17"/>
         <v>559436</v>
       </c>
       <c r="E138" s="1">
-        <f>B138/D138</f>
+        <f t="shared" si="18"/>
         <v>122.02479461457611</v>
       </c>
       <c r="H138" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>204876.39482585696</v>
       </c>
       <c r="I138" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>81950.55793034278</v>
       </c>
       <c r="J138" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>40975.27896517139</v>
       </c>
     </row>
@@ -5497,23 +5500,23 @@
         <v>2509712</v>
       </c>
       <c r="D139">
-        <f>C139/4</f>
+        <f t="shared" si="17"/>
         <v>627428</v>
       </c>
       <c r="E139" s="1">
-        <f>B139/D139</f>
+        <f t="shared" si="18"/>
         <v>108.5138964152062</v>
       </c>
       <c r="H139" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>230385.23936457519</v>
       </c>
       <c r="I139" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>92154.095745830084</v>
       </c>
       <c r="J139" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>46077.047872915042</v>
       </c>
     </row>
@@ -5528,23 +5531,23 @@
         <v>2424552</v>
       </c>
       <c r="D140">
-        <f>C140/4</f>
+        <f t="shared" si="17"/>
         <v>606138</v>
       </c>
       <c r="E140" s="1">
-        <f>B140/D140</f>
+        <f t="shared" si="18"/>
         <v>111.52606337170744</v>
       </c>
       <c r="H140" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>224162.84807504594</v>
       </c>
       <c r="I140" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>89665.13923001838</v>
       </c>
       <c r="J140" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>44832.56961500919</v>
       </c>
     </row>
@@ -5559,23 +5562,23 @@
         <v>2250192</v>
       </c>
       <c r="D141">
-        <f>C141/4</f>
+        <f t="shared" si="17"/>
         <v>562548</v>
       </c>
       <c r="E141" s="1">
-        <f>B141/D141</f>
+        <f t="shared" si="18"/>
         <v>120.01284690373087</v>
       </c>
       <c r="H141" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>208311.03206854113</v>
       </c>
       <c r="I141" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>83324.412827416454</v>
       </c>
       <c r="J141" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>41662.206413708227</v>
       </c>
     </row>
@@ -5590,23 +5593,23 @@
         <v>2178624</v>
       </c>
       <c r="D142">
-        <f>C142/4</f>
+        <f t="shared" si="17"/>
         <v>544656</v>
       </c>
       <c r="E142" s="1">
-        <f>B142/D142</f>
+        <f t="shared" si="18"/>
         <v>121.75760296407273</v>
       </c>
       <c r="H142" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>205325.98697246696</v>
       </c>
       <c r="I142" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>82130.39478898677</v>
       </c>
       <c r="J142" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>41065.197394493385</v>
       </c>
     </row>
@@ -5621,23 +5624,23 @@
         <v>2364664</v>
       </c>
       <c r="D143">
-        <f>C143/4</f>
+        <f t="shared" si="17"/>
         <v>591166</v>
       </c>
       <c r="E143" s="1">
-        <f>B143/D143</f>
+        <f t="shared" si="18"/>
         <v>112.01384213571146</v>
       </c>
       <c r="H143" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>223186.70195877226</v>
       </c>
       <c r="I143" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>89274.680783508913</v>
       </c>
       <c r="J143" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>44637.340391754457</v>
       </c>
     </row>
@@ -5652,23 +5655,23 @@
         <v>2468232</v>
       </c>
       <c r="D144">
-        <f>C144/4</f>
+        <f t="shared" si="17"/>
         <v>617058</v>
       </c>
       <c r="E144" s="1">
-        <f>B144/D144</f>
+        <f t="shared" si="18"/>
         <v>106.52029468866785</v>
       </c>
       <c r="H144" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>234697.06005854323</v>
       </c>
       <c r="I144" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>93878.824023417284</v>
       </c>
       <c r="J144" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>46939.412011708642</v>
       </c>
     </row>
@@ -5683,23 +5686,23 @@
         <v>2214272</v>
       </c>
       <c r="D145">
-        <f>C145/4</f>
+        <f t="shared" si="17"/>
         <v>553568</v>
       </c>
       <c r="E145" s="1">
-        <f>B145/D145</f>
+        <f t="shared" si="18"/>
         <v>118.16593806000347</v>
       </c>
       <c r="H145" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>211566.88983677558</v>
       </c>
       <c r="I145" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>84626.755934710236</v>
       </c>
       <c r="J145" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>42313.377967355118</v>
       </c>
     </row>
@@ -5714,23 +5717,23 @@
         <v>1927920</v>
       </c>
       <c r="D146">
-        <f>C146/4</f>
+        <f t="shared" si="17"/>
         <v>481980</v>
       </c>
       <c r="E146" s="1">
-        <f>B146/D146</f>
+        <f t="shared" si="18"/>
         <v>135.69306610232789</v>
       </c>
       <c r="H146" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>184239.33306324715</v>
       </c>
       <c r="I146" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>73695.733225298856</v>
       </c>
       <c r="J146" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>36847.866612649428</v>
       </c>
     </row>
@@ -5745,23 +5748,23 @@
         <v>2211704</v>
       </c>
       <c r="D147">
-        <f>C147/4</f>
+        <f t="shared" si="17"/>
         <v>552926</v>
       </c>
       <c r="E147" s="1">
-        <f>B147/D147</f>
+        <f t="shared" si="18"/>
         <v>118.08931394074433</v>
       </c>
       <c r="H147" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>211704.16835976092</v>
       </c>
       <c r="I147" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>84681.667343904366</v>
       </c>
       <c r="J147" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>42340.833671952183</v>
       </c>
     </row>
@@ -5776,23 +5779,23 @@
         <v>2075248</v>
       </c>
       <c r="D148">
-        <f>C148/4</f>
+        <f t="shared" si="17"/>
         <v>518812</v>
       </c>
       <c r="E148" s="1">
-        <f>B148/D148</f>
+        <f t="shared" si="18"/>
         <v>123.15750984942522</v>
       </c>
       <c r="H148" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>202992.08737303547</v>
       </c>
       <c r="I148" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>81196.834949214186</v>
       </c>
       <c r="J148" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>40598.417474607093</v>
       </c>
     </row>
@@ -5807,23 +5810,23 @@
         <v>2196312</v>
       </c>
       <c r="D149">
-        <f>C149/4</f>
+        <f t="shared" si="17"/>
         <v>549078</v>
       </c>
       <c r="E149" s="1">
-        <f>B149/D149</f>
+        <f t="shared" si="18"/>
         <v>115.88908679641143</v>
       </c>
       <c r="H149" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>215723.50504339411</v>
       </c>
       <c r="I149" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>86289.402017357643</v>
       </c>
       <c r="J149" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>43144.701008678821</v>
       </c>
     </row>
@@ -5838,23 +5841,23 @@
         <v>2033056</v>
       </c>
       <c r="D150">
-        <f>C150/4</f>
+        <f t="shared" si="17"/>
         <v>508264</v>
       </c>
       <c r="E150" s="1">
-        <f>B150/D150</f>
+        <f t="shared" si="18"/>
         <v>122.69984692994193</v>
       </c>
       <c r="H150" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>203749.23543526733</v>
       </c>
       <c r="I150" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>81499.694174106931</v>
       </c>
       <c r="J150" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>40749.847087053466</v>
       </c>
     </row>
@@ -5869,23 +5872,23 @@
         <v>2000880</v>
       </c>
       <c r="D151">
-        <f>C151/4</f>
+        <f t="shared" si="17"/>
         <v>500220</v>
       </c>
       <c r="E151" s="1">
-        <f>B151/D151</f>
+        <f t="shared" si="18"/>
         <v>122.82635240494183</v>
       </c>
       <c r="H151" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>203539.38312503483</v>
       </c>
       <c r="I151" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>81415.753250013935</v>
       </c>
       <c r="J151" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>40707.876625006968</v>
       </c>
     </row>
@@ -5900,23 +5903,23 @@
         <v>1989608</v>
       </c>
       <c r="D152">
-        <f>C152/4</f>
+        <f t="shared" si="17"/>
         <v>497402</v>
       </c>
       <c r="E152" s="1">
-        <f>B152/D152</f>
+        <f t="shared" si="18"/>
         <v>122.13830060996941</v>
       </c>
       <c r="H152" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>204685.99837354707</v>
       </c>
       <c r="I152" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>81874.399349418818</v>
       </c>
       <c r="J152" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>40937.199674709409</v>
       </c>
     </row>
@@ -5931,23 +5934,23 @@
         <v>1994344</v>
       </c>
       <c r="D153">
-        <f>C153/4</f>
+        <f t="shared" si="17"/>
         <v>498586</v>
       </c>
       <c r="E153" s="1">
-        <f>B153/D153</f>
+        <f t="shared" si="18"/>
         <v>121.14934434580995</v>
       </c>
       <c r="H153" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>206356.8741126633</v>
       </c>
       <c r="I153" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>82542.749645065313</v>
       </c>
       <c r="J153" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>41271.374822532656</v>
       </c>
     </row>
@@ -5962,23 +5965,23 @@
         <v>2767168</v>
       </c>
       <c r="D154">
-        <f>C154/4</f>
+        <f t="shared" si="17"/>
         <v>691792</v>
       </c>
       <c r="E154" s="1">
-        <f>B154/D154</f>
+        <f t="shared" si="18"/>
         <v>85.829691583597381</v>
       </c>
       <c r="H154" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>291274.49416091881</v>
       </c>
       <c r="I154" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>116509.79766436754</v>
       </c>
       <c r="J154" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>58254.898832183768</v>
       </c>
     </row>
@@ -5993,23 +5996,23 @@
         <v>1923704</v>
       </c>
       <c r="D155">
-        <f>C155/4</f>
+        <f t="shared" si="17"/>
         <v>480926</v>
       </c>
       <c r="E155" s="1">
-        <f>B155/D155</f>
+        <f t="shared" si="18"/>
         <v>122.59283964684795</v>
       </c>
       <c r="H155" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>203927.08148385555</v>
       </c>
       <c r="I155" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>81570.832593542218</v>
       </c>
       <c r="J155" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>40785.416296771109</v>
       </c>
     </row>
@@ -6024,23 +6027,23 @@
         <v>1876328</v>
       </c>
       <c r="D156">
-        <f>C156/4</f>
+        <f t="shared" si="17"/>
         <v>469082</v>
       </c>
       <c r="E156" s="1">
-        <f>B156/D156</f>
+        <f t="shared" si="18"/>
         <v>122.68361182053458</v>
       </c>
       <c r="H156" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>203776.19821440196</v>
       </c>
       <c r="I156" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>81510.479285760783</v>
       </c>
       <c r="J156" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>40755.239642880391</v>
       </c>
     </row>
@@ -6055,23 +6058,23 @@
         <v>1863312</v>
       </c>
       <c r="D157">
-        <f>C157/4</f>
+        <f t="shared" si="17"/>
         <v>465828</v>
       </c>
       <c r="E157" s="1">
-        <f>B157/D157</f>
+        <f t="shared" si="18"/>
         <v>122.69368522287196</v>
       </c>
       <c r="H157" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>203759.4677720188</v>
       </c>
       <c r="I157" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>81503.787108807519</v>
       </c>
       <c r="J157" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>40751.893554403759</v>
       </c>
     </row>
@@ -6086,23 +6089,23 @@
         <v>1853824</v>
       </c>
       <c r="D158">
-        <f>C158/4</f>
+        <f t="shared" si="17"/>
         <v>463456</v>
       </c>
       <c r="E158" s="1">
-        <f>B158/D158</f>
+        <f t="shared" si="18"/>
         <v>122.19004177311331</v>
       </c>
       <c r="H158" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>204599.32443939141</v>
       </c>
       <c r="I158" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>81839.729775756568</v>
       </c>
       <c r="J158" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>40919.864887878284</v>
       </c>
     </row>
@@ -6117,23 +6120,23 @@
         <v>1822880</v>
       </c>
       <c r="D159">
-        <f>C159/4</f>
+        <f t="shared" si="17"/>
         <v>455720</v>
       </c>
       <c r="E159" s="1">
-        <f>B159/D159</f>
+        <f t="shared" si="18"/>
         <v>124.23196919160888</v>
       </c>
       <c r="H159" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>201236.4463243862</v>
       </c>
       <c r="I159" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>80494.578529754479</v>
       </c>
       <c r="J159" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>40247.289264877239</v>
       </c>
     </row>
@@ -6148,23 +6151,23 @@
         <v>2067568</v>
       </c>
       <c r="D160">
-        <f>C160/4</f>
+        <f t="shared" si="17"/>
         <v>516892</v>
       </c>
       <c r="E160" s="1">
-        <f>B160/D160</f>
+        <f t="shared" si="18"/>
         <v>108.56827538441298</v>
       </c>
       <c r="H160" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>230269.84550948499</v>
       </c>
       <c r="I160" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>92107.938203793994</v>
       </c>
       <c r="J160" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>46053.969101896997</v>
       </c>
     </row>
@@ -6179,23 +6182,23 @@
         <v>1747200</v>
       </c>
       <c r="D161">
-        <f>C161/4</f>
+        <f t="shared" si="17"/>
         <v>436800</v>
       </c>
       <c r="E161" s="1">
-        <f>B161/D161</f>
+        <f t="shared" si="18"/>
         <v>124.41495421245422</v>
       </c>
       <c r="H161" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>200940.47502769923</v>
       </c>
       <c r="I161" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>80376.190011079685</v>
       </c>
       <c r="J161" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>40188.095005539843</v>
       </c>
     </row>
@@ -6210,23 +6213,23 @@
         <v>1794016</v>
       </c>
       <c r="D162">
-        <f>C162/4</f>
+        <f t="shared" ref="D162:D193" si="22">C162/4</f>
         <v>448504</v>
       </c>
       <c r="E162" s="1">
-        <f>B162/D162</f>
+        <f t="shared" ref="E162:E193" si="23">B162/D162</f>
         <v>121.16392272978614</v>
       </c>
       <c r="H162" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>206332.04535440617</v>
       </c>
       <c r="I162" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>82532.818141762473</v>
       </c>
       <c r="J162" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>41266.409070881236</v>
       </c>
     </row>
@@ -6241,23 +6244,23 @@
         <v>1747712</v>
       </c>
       <c r="D163">
-        <f>C163/4</f>
+        <f t="shared" si="22"/>
         <v>436928</v>
       </c>
       <c r="E163" s="1">
-        <f>B163/D163</f>
+        <f t="shared" si="23"/>
         <v>123.17552777574338</v>
       </c>
       <c r="H163" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>202962.39400342299</v>
       </c>
       <c r="I163" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>81184.957601369199</v>
       </c>
       <c r="J163" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>40592.478800684599</v>
       </c>
     </row>
@@ -6272,23 +6275,23 @@
         <v>1752888</v>
       </c>
       <c r="D164">
-        <f>C164/4</f>
+        <f t="shared" si="22"/>
         <v>438222</v>
       </c>
       <c r="E164" s="1">
-        <f>B164/D164</f>
+        <f t="shared" si="23"/>
         <v>122.56027310358677</v>
       </c>
       <c r="H164" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>203981.26870091289</v>
       </c>
       <c r="I164" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>81592.507480365166</v>
       </c>
       <c r="J164" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>40796.253740182583</v>
       </c>
     </row>
@@ -6303,23 +6306,23 @@
         <v>1739128</v>
       </c>
       <c r="D165">
-        <f>C165/4</f>
+        <f t="shared" si="22"/>
         <v>434782</v>
       </c>
       <c r="E165" s="1">
-        <f>B165/D165</f>
+        <f t="shared" si="23"/>
         <v>122.56530859143203</v>
       </c>
       <c r="H165" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>203972.88830999308</v>
       </c>
       <c r="I165" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>81589.155323997227</v>
       </c>
       <c r="J165" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>40794.577661998614</v>
       </c>
     </row>
@@ -6334,23 +6337,23 @@
         <v>1692200</v>
       </c>
       <c r="D166">
-        <f>C166/4</f>
+        <f t="shared" si="22"/>
         <v>423050</v>
       </c>
       <c r="E166" s="1">
-        <f>B166/D166</f>
+        <f t="shared" si="23"/>
         <v>123.89414017255643</v>
       </c>
       <c r="H166" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>201785.168896452</v>
       </c>
       <c r="I166" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>80714.067558580806</v>
       </c>
       <c r="J166" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>40357.033779290403</v>
       </c>
     </row>
@@ -6365,23 +6368,23 @@
         <v>1668520</v>
       </c>
       <c r="D167">
-        <f>C167/4</f>
+        <f t="shared" si="22"/>
         <v>417130</v>
       </c>
       <c r="E167" s="1">
-        <f>B167/D167</f>
+        <f t="shared" si="23"/>
         <v>124.59603241195791</v>
       </c>
       <c r="H167" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>200648.44374290577</v>
       </c>
       <c r="I167" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>80259.377497162306</v>
       </c>
       <c r="J167" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>40129.688748581153</v>
       </c>
     </row>
@@ -6396,23 +6399,23 @@
         <v>1800304</v>
       </c>
       <c r="D168">
-        <f>C168/4</f>
+        <f t="shared" si="22"/>
         <v>450076</v>
       </c>
       <c r="E168" s="1">
-        <f>B168/D168</f>
+        <f t="shared" si="23"/>
         <v>111.79991157049032</v>
       </c>
       <c r="H168" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>223613.77257653189</v>
       </c>
       <c r="I168" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>89445.509030612753</v>
       </c>
       <c r="J168" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>44722.754515306377</v>
       </c>
     </row>
@@ -6427,19 +6430,19 @@
         <v>1574616</v>
       </c>
       <c r="D169">
-        <f>C169/4</f>
+        <f t="shared" si="22"/>
         <v>393654</v>
       </c>
       <c r="E169" s="1">
-        <f>B169/D169</f>
+        <f t="shared" si="23"/>
         <v>123.42633632580896</v>
       </c>
       <c r="I169" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>81019.985666616267</v>
       </c>
       <c r="J169" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>40509.992833308133</v>
       </c>
     </row>
@@ -6454,19 +6457,19 @@
         <v>1522424</v>
       </c>
       <c r="D170">
-        <f>C170/4</f>
+        <f t="shared" si="22"/>
         <v>380606</v>
       </c>
       <c r="E170" s="1">
-        <f>B170/D170</f>
+        <f t="shared" si="23"/>
         <v>123.59868210170097</v>
       </c>
       <c r="I170" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>80907.011547029906</v>
       </c>
       <c r="J170" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>40453.505773514953</v>
       </c>
     </row>
@@ -6481,19 +6484,19 @@
         <v>1527600</v>
       </c>
       <c r="D171">
-        <f>C171/4</f>
+        <f t="shared" si="22"/>
         <v>381900</v>
       </c>
       <c r="E171" s="1">
-        <f>B171/D171</f>
+        <f t="shared" si="23"/>
         <v>120.9296988740508</v>
       </c>
       <c r="I171" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>82692.67262804546</v>
       </c>
       <c r="J171" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>41346.33631402273</v>
       </c>
     </row>
@@ -6508,19 +6511,19 @@
         <v>1538896</v>
       </c>
       <c r="D172">
-        <f>C172/4</f>
+        <f t="shared" si="22"/>
         <v>384724</v>
       </c>
       <c r="E172" s="1">
-        <f>B172/D172</f>
+        <f t="shared" si="23"/>
         <v>118.65603393601647</v>
       </c>
       <c r="I172" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>84277.214299884261</v>
       </c>
       <c r="J172" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>42138.60714994213</v>
       </c>
     </row>
@@ -6535,19 +6538,19 @@
         <v>1446064</v>
       </c>
       <c r="D173">
-        <f>C173/4</f>
+        <f t="shared" si="22"/>
         <v>361516</v>
       </c>
       <c r="E173" s="1">
-        <f>B173/D173</f>
+        <f t="shared" si="23"/>
         <v>124.42076422620299</v>
       </c>
       <c r="I173" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>80372.43672462512</v>
       </c>
       <c r="J173" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>40186.21836231256</v>
       </c>
     </row>
@@ -6562,19 +6565,19 @@
         <v>1455240</v>
       </c>
       <c r="D174">
-        <f>C174/4</f>
+        <f t="shared" si="22"/>
         <v>363810</v>
       </c>
       <c r="E174" s="1">
-        <f>B174/D174</f>
+        <f t="shared" si="23"/>
         <v>123.20345784887716</v>
       </c>
       <c r="I174" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>81166.553070824681</v>
       </c>
       <c r="J174" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>40583.27653541234</v>
       </c>
     </row>
@@ -6589,19 +6592,19 @@
         <v>1660488</v>
       </c>
       <c r="D175">
-        <f>C175/4</f>
+        <f t="shared" si="22"/>
         <v>415122</v>
       </c>
       <c r="E175" s="1">
-        <f>B175/D175</f>
+        <f t="shared" si="23"/>
         <v>107.61781596735418</v>
       </c>
       <c r="I175" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>92921.417426214044</v>
       </c>
       <c r="J175" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>46460.708713107022</v>
       </c>
     </row>
@@ -6616,19 +6619,19 @@
         <v>1427448</v>
       </c>
       <c r="D176">
-        <f>C176/4</f>
+        <f t="shared" si="22"/>
         <v>356862</v>
       </c>
       <c r="E176" s="1">
-        <f>B176/D176</f>
+        <f t="shared" si="23"/>
         <v>123.98092259753069</v>
       </c>
       <c r="I176" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>80657.570459143913</v>
       </c>
       <c r="J176" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>40328.785229571957</v>
       </c>
     </row>
@@ -6643,19 +6646,19 @@
         <v>1408136</v>
       </c>
       <c r="D177">
-        <f>C177/4</f>
+        <f t="shared" si="22"/>
         <v>352034</v>
       </c>
       <c r="E177" s="1">
-        <f>B177/D177</f>
+        <f t="shared" si="23"/>
         <v>122.89257571711823</v>
       </c>
       <c r="I177" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>81371.880617252435</v>
       </c>
       <c r="J177" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>40685.940308626217</v>
       </c>
     </row>
@@ -6670,19 +6673,19 @@
         <v>1374224</v>
       </c>
       <c r="D178">
-        <f>C178/4</f>
+        <f t="shared" si="22"/>
         <v>343556</v>
       </c>
       <c r="E178" s="1">
-        <f>B178/D178</f>
+        <f t="shared" si="23"/>
         <v>124.39054186217095</v>
       </c>
       <c r="I178" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>80391.964294844438</v>
       </c>
       <c r="J178" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>40195.982147422219</v>
       </c>
     </row>
@@ -6697,19 +6700,19 @@
         <v>1380664</v>
       </c>
       <c r="D179">
-        <f>C179/4</f>
+        <f t="shared" si="22"/>
         <v>345166</v>
       </c>
       <c r="E179" s="1">
-        <f>B179/D179</f>
+        <f t="shared" si="23"/>
         <v>123.75840610025321</v>
       </c>
       <c r="I179" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>80802.592042913675</v>
       </c>
       <c r="J179" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>40401.296021456837</v>
       </c>
     </row>
@@ -6724,19 +6727,19 @@
         <v>1407536</v>
       </c>
       <c r="D180">
-        <f>C180/4</f>
+        <f t="shared" si="22"/>
         <v>351884</v>
       </c>
       <c r="E180" s="1">
-        <f>B180/D180</f>
+        <f t="shared" si="23"/>
         <v>118.60868922713166</v>
       </c>
       <c r="I180" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>84310.855007008257</v>
       </c>
       <c r="J180" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>42155.427503504128</v>
       </c>
     </row>
@@ -6751,19 +6754,19 @@
         <v>1250680</v>
       </c>
       <c r="D181">
-        <f>C181/4</f>
+        <f t="shared" si="22"/>
         <v>312670</v>
       </c>
       <c r="E181" s="1">
-        <f>B181/D181</f>
+        <f t="shared" si="23"/>
         <v>124.48685195253782</v>
       </c>
       <c r="I181" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>80329.768510915717</v>
       </c>
       <c r="J181" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>40164.884255457859</v>
       </c>
     </row>
@@ -6778,19 +6781,19 @@
         <v>1233952</v>
       </c>
       <c r="D182">
-        <f>C182/4</f>
+        <f t="shared" si="22"/>
         <v>308488</v>
       </c>
       <c r="E182" s="1">
-        <f>B182/D182</f>
+        <f t="shared" si="23"/>
         <v>123.63834249630456</v>
       </c>
       <c r="I182" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>80881.058400624315</v>
       </c>
       <c r="J182" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>40440.529200312158</v>
       </c>
     </row>
@@ -6805,19 +6808,19 @@
         <v>1025000</v>
       </c>
       <c r="D183">
-        <f>C183/4</f>
+        <f t="shared" si="22"/>
         <v>256250</v>
       </c>
       <c r="E183" s="1">
-        <f>B183/D183</f>
+        <f t="shared" si="23"/>
         <v>118.84818731707317</v>
       </c>
       <c r="I183" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>84140.955160899175</v>
       </c>
       <c r="J183" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>42070.477580449588</v>
       </c>
     </row>
@@ -6832,19 +6835,19 @@
         <v>954608</v>
       </c>
       <c r="D184">
-        <f>C184/4</f>
+        <f t="shared" si="22"/>
         <v>238652</v>
       </c>
       <c r="E184" s="1">
-        <f>B184/D184</f>
+        <f t="shared" si="23"/>
         <v>124.52508673717379</v>
       </c>
       <c r="I184" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>80305.103670445824</v>
       </c>
       <c r="J184" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>40152.551835222912</v>
       </c>
     </row>
@@ -6859,19 +6862,19 @@
         <v>953088</v>
       </c>
       <c r="D185">
-        <f>C185/4</f>
+        <f t="shared" si="22"/>
         <v>238272</v>
       </c>
       <c r="E185" s="1">
-        <f>B185/D185</f>
+        <f t="shared" si="23"/>
         <v>121.3191730459307</v>
       </c>
       <c r="I185" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>82427.202139055633</v>
       </c>
       <c r="J185" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>41213.601069527816</v>
       </c>
     </row>
@@ -6886,19 +6889,19 @@
         <v>749136</v>
       </c>
       <c r="D186">
-        <f>C186/4</f>
+        <f t="shared" si="22"/>
         <v>187284</v>
       </c>
       <c r="E186" s="1">
-        <f>B186/D186</f>
+        <f t="shared" si="23"/>
         <v>122.78602016189316</v>
       </c>
       <c r="I186" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>81442.496359235491</v>
       </c>
       <c r="J186" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>40721.248179617745</v>
       </c>
     </row>
@@ -6913,15 +6916,15 @@
         <v>561320</v>
       </c>
       <c r="D187">
-        <f>C187/4</f>
+        <f t="shared" si="22"/>
         <v>140330</v>
       </c>
       <c r="E187" s="1">
-        <f>B187/D187</f>
+        <f t="shared" si="23"/>
         <v>121.11423786788285</v>
       </c>
       <c r="J187" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>41283.337847150862</v>
       </c>
     </row>
@@ -6936,15 +6939,15 @@
         <v>424192</v>
       </c>
       <c r="D188">
-        <f>C188/4</f>
+        <f t="shared" si="22"/>
         <v>106048</v>
       </c>
       <c r="E188" s="1">
-        <f>B188/D188</f>
+        <f t="shared" si="23"/>
         <v>123.50582754978878</v>
       </c>
       <c r="J188" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>40483.919659453764</v>
       </c>
     </row>
@@ -6959,15 +6962,15 @@
         <v>285568</v>
       </c>
       <c r="D189">
-        <f>C189/4</f>
+        <f t="shared" si="22"/>
         <v>71392</v>
       </c>
       <c r="E189" s="1">
-        <f>B189/D189</f>
+        <f t="shared" si="23"/>
         <v>123.38085499775885</v>
       </c>
       <c r="J189" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>40524.925849239924</v>
       </c>
     </row>
@@ -7002,10 +7005,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493103A5-597F-6D4E-AFE8-7F9954B3469E}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7030,6 +7034,949 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>3519</v>
+      </c>
+      <c r="F121" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>3545</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>3594</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>3595</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>3606</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>3609</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>3676</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>3729</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>3935</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>3955</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>3966</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>3970</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7037,10 +7984,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC070E77-26BF-0F4A-A7BF-E93812FFAFA9}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7065,6 +8012,946 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>3519</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>3545</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>3594</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>3595</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>3606</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>3609</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>3676</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>3729</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>3935</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>3955</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>3966</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>3970</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Genus_traditional_barcode_sum.xlsx
+++ b/Genus_traditional_barcode_sum.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingcai/Documents/GitHub/Bruno_barcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F3051A-FBFB-6F4C-B76D-C970D3FECFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E20E8F-994D-E94E-8337-DD504BB55147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" activeTab="2" xr2:uid="{AED4ACFE-60B5-2248-89FD-DD24598D5344}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" activeTab="1" xr2:uid="{AED4ACFE-60B5-2248-89FD-DD24598D5344}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_sum" sheetId="1" r:id="rId1"/>
-    <sheet name="Complete" sheetId="2" r:id="rId2"/>
-    <sheet name="200Mb" sheetId="3" r:id="rId3"/>
+    <sheet name="200Mb" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Total_bases</t>
   </si>
@@ -153,24 +152,6 @@
   </si>
   <si>
     <t>Num_reads_per_end_10M</t>
-  </si>
-  <si>
-    <t>rbcL</t>
-  </si>
-  <si>
-    <t>matK</t>
-  </si>
-  <si>
-    <t>trnL-F</t>
-  </si>
-  <si>
-    <t>ndhF</t>
-  </si>
-  <si>
-    <t>ITS</t>
-  </si>
-  <si>
-    <t>NA-failed_assembly</t>
   </si>
 </sst>
 </file>
@@ -540,7 +521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1725C47A-90DE-A747-AA64-0961FB486C2E}">
   <dimension ref="A1:J196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A114" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -6213,11 +6194,11 @@
         <v>1794016</v>
       </c>
       <c r="D162">
-        <f t="shared" ref="D162:D193" si="22">C162/4</f>
+        <f t="shared" ref="D162:D189" si="22">C162/4</f>
         <v>448504</v>
       </c>
       <c r="E162" s="1">
-        <f t="shared" ref="E162:E193" si="23">B162/D162</f>
+        <f t="shared" ref="E162:E189" si="23">B162/D162</f>
         <v>121.16392272978614</v>
       </c>
       <c r="H162" s="2">
@@ -7004,1953 +6985,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493103A5-597F-6D4E-AFE8-7F9954B3469E}">
-  <dimension ref="A1:F189"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC070E77-26BF-0F4A-A7BF-E93812FFAFA9}">
+  <dimension ref="B1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E121" sqref="E121"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>1702</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>1845</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>1853</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>1874</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>1915</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>1928</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>1936</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>1939</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>1944</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>1946</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>2065</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>2168</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>2207</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>2272</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>2279</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>2647</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>2650</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>2657</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>2693</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>2711</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>2763</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>2764</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>2794</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>2798</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>2827</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>2831</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>2906</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>2907</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>2909</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>2942</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>2960</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>2985</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>3013</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>3121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>3122</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>3129</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>3211</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>3220</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>3230</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>3231</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>3234</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>3235</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>3279</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>3301</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>3316</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>3338</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>3340</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>3341</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>3342</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>3345</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>3349</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>3353</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>3356</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>3375</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>3384</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>3386</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>3419</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>3423</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>3431</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>3444</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>3448</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>3518</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>3519</v>
-      </c>
-      <c r="F121" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>3527</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>3536</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>3545</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>3594</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>3595</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>3606</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>3609</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>3640</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>3676</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>3679</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>3680</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>3729</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>3935</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>3955</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>3966</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>3970</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>3980</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>4004</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC070E77-26BF-0F4A-A7BF-E93812FFAFA9}">
-  <dimension ref="A1:F189"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>1702</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>1845</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>1853</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>1874</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>1915</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>1928</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>1936</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>1939</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>1944</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>1946</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>2065</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>2168</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>2207</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>2272</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>2279</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>2647</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>2650</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>2657</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>2693</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>2711</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>2763</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>2764</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>2794</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>2798</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>2827</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>2831</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>2906</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>2907</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>2909</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>2942</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>2960</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>2985</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>3013</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>3121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>3122</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>3129</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>3211</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>3220</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>3230</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>3231</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>3234</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>3235</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>3279</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>3301</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>3316</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>3338</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>3340</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>3341</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>3342</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>3345</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>3349</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>3353</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>3356</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>3375</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>3384</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>3386</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>3419</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>3423</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>3431</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>3444</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>3448</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>3518</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>3519</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>3527</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>3536</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>3545</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>3594</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>3595</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>3606</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>3609</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>3640</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>3676</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>3679</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>3680</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>3729</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>3935</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>3955</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>3966</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>3970</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>3980</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>4004</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>32</v>
-      </c>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
